--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>Update physical view</t>
+  </si>
+  <si>
+    <t>Modify Static view</t>
+  </si>
+  <si>
+    <t>Code Function "Login"</t>
+  </si>
+  <si>
+    <t>Modify Database design</t>
+  </si>
+  <si>
+    <t>WEEK 17</t>
+  </si>
+  <si>
+    <t>Detailed Design</t>
+  </si>
+  <si>
+    <t>23/1/2017</t>
   </si>
 </sst>
 </file>
@@ -324,7 +342,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,9 +528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,8 +886,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:Q215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,65 +896,65 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="4" spans="2:17" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+    </row>
+    <row r="4" spans="2:17" s="22" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -940,11 +965,11 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
@@ -954,11 +979,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
@@ -968,11 +993,11 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="3"/>
       <c r="O7" s="4" t="s">
         <v>13</v>
@@ -985,11 +1010,11 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="3"/>
       <c r="O8" s="4" t="s">
         <v>14</v>
@@ -1002,11 +1027,11 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="3"/>
       <c r="O9" s="4" t="s">
         <v>15</v>
@@ -1019,11 +1044,11 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
@@ -1033,11 +1058,11 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
@@ -1047,11 +1072,11 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
@@ -1061,1320 +1086,1320 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
       <c r="K78" s="3"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
       <c r="K79" s="3"/>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
       <c r="K82" s="3"/>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
       <c r="K83" s="3"/>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
       <c r="K84" s="3"/>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
       <c r="K86" s="3"/>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
       <c r="K87" s="3"/>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
       <c r="K88" s="3"/>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
       <c r="K90" s="3"/>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
       <c r="K91" s="3"/>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
       <c r="K92" s="3"/>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
       <c r="K94" s="3"/>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
       <c r="K95" s="3"/>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
       <c r="K96" s="3"/>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
       <c r="K97" s="3"/>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
       <c r="K98" s="3"/>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
       <c r="K99" s="3"/>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
       <c r="K100" s="3"/>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
       <c r="K101" s="3"/>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
       <c r="K102" s="3"/>
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
       <c r="K103" s="3"/>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
       <c r="K104" s="3"/>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
       <c r="K105" s="3"/>
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
       <c r="K108" s="3"/>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
       <c r="K109" s="3"/>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
       <c r="K111" s="3"/>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
       <c r="K114" s="3"/>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
       <c r="K115" s="3"/>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
       <c r="K116" s="3"/>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
       <c r="K117" s="3"/>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
       <c r="K118" s="3"/>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
       <c r="K119" s="3"/>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
       <c r="K120" s="3"/>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
       <c r="K121" s="3"/>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
       <c r="K122" s="3"/>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
       <c r="K123" s="3"/>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
       <c r="K124" s="3"/>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
       <c r="K125" s="3"/>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
       <c r="K126" s="3"/>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
       <c r="K127" s="3"/>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
       <c r="K128" s="3"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
       <c r="K129" s="3"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
       <c r="K130" s="3"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
       <c r="K131" s="3"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
       <c r="K132" s="3"/>
     </row>
     <row r="133" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -2396,13 +2421,13 @@
       <c r="G133" s="15">
         <v>4</v>
       </c>
-      <c r="H133" s="18">
+      <c r="H133" s="17">
         <v>3</v>
       </c>
       <c r="I133" s="13">
         <v>42795</v>
       </c>
-      <c r="J133" s="25" t="s">
+      <c r="J133" s="24" t="s">
         <v>44</v>
       </c>
       <c r="K133" s="3" t="s">
@@ -2428,13 +2453,13 @@
       <c r="G134" s="15">
         <v>2</v>
       </c>
-      <c r="H134" s="18">
+      <c r="H134" s="17">
         <v>1</v>
       </c>
       <c r="I134" s="13">
         <v>42826</v>
       </c>
-      <c r="J134" s="25" t="s">
+      <c r="J134" s="24" t="s">
         <v>44</v>
       </c>
       <c r="K134" s="3" t="s">
@@ -2460,13 +2485,13 @@
       <c r="G135" s="15">
         <v>2</v>
       </c>
-      <c r="H135" s="18">
+      <c r="H135" s="17">
         <v>3</v>
       </c>
       <c r="I135" s="13">
         <v>42887</v>
       </c>
-      <c r="J135" s="25" t="s">
+      <c r="J135" s="24" t="s">
         <v>44</v>
       </c>
       <c r="K135" s="3" t="s">
@@ -2492,13 +2517,13 @@
       <c r="G136" s="15">
         <v>3</v>
       </c>
-      <c r="H136" s="18">
+      <c r="H136" s="17">
         <v>3</v>
       </c>
       <c r="I136" s="13">
         <v>42887</v>
       </c>
-      <c r="J136" s="25" t="s">
+      <c r="J136" s="24" t="s">
         <v>44</v>
       </c>
       <c r="K136" s="3" t="s">
@@ -2524,13 +2549,13 @@
       <c r="G137" s="15">
         <v>4</v>
       </c>
-      <c r="H137" s="18">
+      <c r="H137" s="17">
         <v>2</v>
       </c>
       <c r="I137" s="13">
         <v>42795</v>
       </c>
-      <c r="J137" s="25" t="s">
+      <c r="J137" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K137" s="3" t="s">
@@ -2556,13 +2581,13 @@
       <c r="G138" s="15">
         <v>3</v>
       </c>
-      <c r="H138" s="18">
+      <c r="H138" s="17">
         <v>2</v>
       </c>
       <c r="I138" s="13">
         <v>42826</v>
       </c>
-      <c r="J138" s="25" t="s">
+      <c r="J138" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K138" s="3" t="s">
@@ -2588,13 +2613,13 @@
       <c r="G139" s="15">
         <v>5</v>
       </c>
-      <c r="H139" s="18">
+      <c r="H139" s="17">
         <v>3</v>
       </c>
       <c r="I139" s="13">
         <v>42887</v>
       </c>
-      <c r="J139" s="25" t="s">
+      <c r="J139" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K139" s="3" t="s">
@@ -2620,7 +2645,7 @@
       <c r="G140" s="15">
         <v>2</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H140" s="17">
         <v>1</v>
       </c>
       <c r="I140" s="13">
@@ -2652,7 +2677,7 @@
       <c r="G141" s="16">
         <v>2</v>
       </c>
-      <c r="H141" s="19">
+      <c r="H141" s="18">
         <v>4</v>
       </c>
       <c r="I141" s="13">
@@ -2684,7 +2709,7 @@
       <c r="G142" s="7">
         <v>3</v>
       </c>
-      <c r="H142" s="20">
+      <c r="H142" s="19">
         <v>3</v>
       </c>
       <c r="I142" s="13">
@@ -2716,13 +2741,13 @@
       <c r="G143" s="7">
         <v>4</v>
       </c>
-      <c r="H143" s="20">
+      <c r="H143" s="19">
         <v>3</v>
       </c>
       <c r="I143" s="13">
         <v>42795</v>
       </c>
-      <c r="J143" s="26" t="s">
+      <c r="J143" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K143" s="3" t="s">
@@ -2748,13 +2773,13 @@
       <c r="G144" s="7">
         <v>2</v>
       </c>
-      <c r="H144" s="20">
+      <c r="H144" s="19">
         <v>3</v>
       </c>
       <c r="I144" s="13">
         <v>42826</v>
       </c>
-      <c r="J144" s="26" t="s">
+      <c r="J144" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K144" s="3" t="s">
@@ -2780,13 +2805,13 @@
       <c r="G145" s="7">
         <v>2</v>
       </c>
-      <c r="H145" s="20">
+      <c r="H145" s="19">
         <v>2</v>
       </c>
       <c r="I145" s="13">
         <v>42887</v>
       </c>
-      <c r="J145" s="26" t="s">
+      <c r="J145" s="25" t="s">
         <v>47</v>
       </c>
       <c r="K145" s="3" t="s">
@@ -2812,13 +2837,13 @@
       <c r="G146" s="7">
         <v>2</v>
       </c>
-      <c r="H146" s="20">
+      <c r="H146" s="19">
         <v>2.5</v>
       </c>
       <c r="I146" s="13">
         <v>42795</v>
       </c>
-      <c r="J146" s="26" t="s">
+      <c r="J146" s="25" t="s">
         <v>48</v>
       </c>
       <c r="K146" s="3" t="s">
@@ -2844,13 +2869,13 @@
       <c r="G147" s="7">
         <v>2</v>
       </c>
-      <c r="H147" s="20">
+      <c r="H147" s="19">
         <v>1</v>
       </c>
       <c r="I147" s="13">
         <v>42826</v>
       </c>
-      <c r="J147" s="26" t="s">
+      <c r="J147" s="25" t="s">
         <v>48</v>
       </c>
       <c r="K147" s="3" t="s">
@@ -2876,13 +2901,13 @@
       <c r="G148" s="7">
         <v>3</v>
       </c>
-      <c r="H148" s="20">
+      <c r="H148" s="19">
         <v>4</v>
       </c>
       <c r="I148" s="13">
         <v>42887</v>
       </c>
-      <c r="J148" s="26" t="s">
+      <c r="J148" s="25" t="s">
         <v>48</v>
       </c>
       <c r="K148" s="3" t="s">
@@ -2908,13 +2933,13 @@
       <c r="G149" s="7">
         <v>2</v>
       </c>
-      <c r="H149" s="20">
+      <c r="H149" s="19">
         <v>1</v>
       </c>
       <c r="I149" s="13">
         <v>42887</v>
       </c>
-      <c r="J149" s="26" t="s">
+      <c r="J149" s="25" t="s">
         <v>48</v>
       </c>
       <c r="K149" s="3" t="s">
@@ -2940,13 +2965,13 @@
       <c r="G150" s="7">
         <v>1</v>
       </c>
-      <c r="H150" s="20">
+      <c r="H150" s="19">
         <v>2</v>
       </c>
       <c r="I150" s="13">
         <v>42795</v>
       </c>
-      <c r="J150" s="26" t="s">
+      <c r="J150" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K150" s="3" t="s">
@@ -2972,13 +2997,13 @@
       <c r="G151" s="7">
         <v>5</v>
       </c>
-      <c r="H151" s="20">
+      <c r="H151" s="19">
         <v>2</v>
       </c>
       <c r="I151" s="13">
         <v>42826</v>
       </c>
-      <c r="J151" s="26" t="s">
+      <c r="J151" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K151" s="3" t="s">
@@ -3004,13 +3029,13 @@
       <c r="G152" s="7">
         <v>4</v>
       </c>
-      <c r="H152" s="20">
+      <c r="H152" s="19">
         <v>2</v>
       </c>
       <c r="I152" s="13">
         <v>42795</v>
       </c>
-      <c r="J152" s="26" t="s">
+      <c r="J152" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K152" s="3" t="s">
@@ -3036,13 +3061,13 @@
       <c r="G153" s="7">
         <v>1</v>
       </c>
-      <c r="H153" s="20">
+      <c r="H153" s="19">
         <v>2</v>
       </c>
       <c r="I153" s="13">
         <v>42826</v>
       </c>
-      <c r="J153" s="26" t="s">
+      <c r="J153" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K153" s="3" t="s">
@@ -3053,11 +3078,11 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="24"/>
-      <c r="I154" s="22"/>
-      <c r="J154" s="27"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="26"/>
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4184,11 +4209,11 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="22"/>
-      <c r="H190" s="22"/>
-      <c r="I190" s="22"/>
-      <c r="J190" s="22"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
+      <c r="J190" s="21"/>
       <c r="K190" s="3"/>
     </row>
     <row r="191" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4204,19 +4229,19 @@
       <c r="E191" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F191" s="22" t="s">
+      <c r="F191" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G191" s="22">
+      <c r="G191" s="21">
         <v>6</v>
       </c>
-      <c r="H191" s="22">
+      <c r="H191" s="21">
         <v>4</v>
       </c>
-      <c r="I191" s="22" t="s">
+      <c r="I191" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J191" s="22" t="s">
+      <c r="J191" s="21" t="s">
         <v>45</v>
       </c>
       <c r="K191" s="3" t="s">
@@ -4236,17 +4261,17 @@
       <c r="E192" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F192" s="22" t="s">
+      <c r="F192" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G192" s="22">
+      <c r="G192" s="21">
         <v>4</v>
       </c>
-      <c r="H192" s="22"/>
-      <c r="I192" s="22" t="s">
+      <c r="H192" s="21"/>
+      <c r="I192" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J192" s="22" t="s">
+      <c r="J192" s="21" t="s">
         <v>47</v>
       </c>
       <c r="K192" s="3" t="s">
@@ -4266,17 +4291,17 @@
       <c r="E193" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F193" s="22" t="s">
+      <c r="F193" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G193" s="22">
+      <c r="G193" s="21">
         <v>5</v>
       </c>
-      <c r="H193" s="22"/>
-      <c r="I193" s="22" t="s">
+      <c r="H193" s="21"/>
+      <c r="I193" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J193" s="22" t="s">
+      <c r="J193" s="21" t="s">
         <v>47</v>
       </c>
       <c r="K193" s="3"/>
@@ -4294,13 +4319,13 @@
       <c r="E194" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F194" s="22" t="s">
+      <c r="F194" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G194" s="22"/>
-      <c r="H194" s="22"/>
-      <c r="I194" s="22"/>
-      <c r="J194" s="22" t="s">
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
+      <c r="J194" s="21" t="s">
         <v>49</v>
       </c>
       <c r="K194" s="3"/>
@@ -4318,13 +4343,13 @@
       <c r="E195" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F195" s="22" t="s">
+      <c r="F195" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G195" s="22"/>
-      <c r="H195" s="22"/>
-      <c r="I195" s="22"/>
-      <c r="J195" s="22" t="s">
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
+      <c r="J195" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K195" s="3"/>
@@ -4342,19 +4367,19 @@
       <c r="E196" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="F196" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G196" s="22">
+      <c r="G196" s="21">
         <v>3</v>
       </c>
-      <c r="H196" s="22">
+      <c r="H196" s="21">
         <v>2</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="I196" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="J196" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K196" s="3" t="s">
@@ -4374,17 +4399,17 @@
       <c r="E197" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F197" s="22" t="s">
+      <c r="F197" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G197" s="22">
+      <c r="G197" s="21">
         <v>4</v>
       </c>
-      <c r="H197" s="22"/>
-      <c r="I197" s="22" t="s">
+      <c r="H197" s="21"/>
+      <c r="I197" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J197" s="22" t="s">
+      <c r="J197" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K197" s="3"/>
@@ -4402,17 +4427,17 @@
       <c r="E198" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F198" s="22" t="s">
+      <c r="F198" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G198" s="22">
+      <c r="G198" s="21">
         <v>5</v>
       </c>
-      <c r="H198" s="22"/>
-      <c r="I198" s="22" t="s">
+      <c r="H198" s="21"/>
+      <c r="I198" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J198" s="22" t="s">
+      <c r="J198" s="21" t="s">
         <v>45</v>
       </c>
       <c r="K198" s="3"/>
@@ -4430,151 +4455,271 @@
       <c r="E199" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F199" s="22" t="s">
+      <c r="F199" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G199" s="22">
+      <c r="G199" s="21">
         <v>5</v>
       </c>
-      <c r="H199" s="22"/>
-      <c r="I199" s="22" t="s">
+      <c r="H199" s="21"/>
+      <c r="I199" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J199" s="22" t="s">
+      <c r="J199" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K199" s="3"/>
     </row>
     <row r="200" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B200" s="2"/>
+      <c r="B200" s="28"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
-      <c r="J200" s="22"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
+      <c r="J200" s="21"/>
       <c r="K200" s="3"/>
     </row>
     <row r="201" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B201" s="2"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="22"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="22"/>
-      <c r="J201" s="22"/>
+      <c r="B201" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+      <c r="J201" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="K201" s="3"/>
     </row>
     <row r="202" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B202" s="2"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="22"/>
-      <c r="G202" s="22"/>
-      <c r="H202" s="22"/>
-      <c r="I202" s="22"/>
-      <c r="J202" s="22"/>
+      <c r="B202" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
+      <c r="J202" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="K202" s="3"/>
     </row>
     <row r="203" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B203" s="2"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="22"/>
-      <c r="I203" s="22"/>
-      <c r="J203" s="22"/>
+      <c r="B203" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C203" s="3">
+        <v>3</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="21"/>
+      <c r="J203" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="K203" s="3"/>
     </row>
     <row r="204" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="22"/>
-      <c r="H204" s="22"/>
-      <c r="I204" s="22"/>
-      <c r="J204" s="22"/>
+      <c r="B204" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C204" s="3">
+        <v>4</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
+      <c r="J204" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="K204" s="3"/>
     </row>
     <row r="205" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B205" s="2"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="22"/>
-      <c r="J205" s="22"/>
+      <c r="B205" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" s="3">
+        <v>5</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
+      <c r="J205" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="K205" s="3"/>
     </row>
     <row r="206" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B206" s="2"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="22"/>
-      <c r="H206" s="22"/>
-      <c r="I206" s="22"/>
-      <c r="J206" s="22"/>
+      <c r="B206" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C206" s="3">
+        <v>6</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
+      <c r="J206" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K206" s="3"/>
     </row>
     <row r="207" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B207" s="2"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="22"/>
-      <c r="H207" s="22"/>
-      <c r="I207" s="22"/>
-      <c r="J207" s="22"/>
+      <c r="B207" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C207" s="3">
+        <v>7</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="K207" s="3"/>
     </row>
     <row r="208" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B208" s="2"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="22"/>
-      <c r="G208" s="22"/>
-      <c r="H208" s="22"/>
-      <c r="I208" s="22"/>
-      <c r="J208" s="22"/>
+      <c r="B208" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C208" s="3">
+        <v>8</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="K208" s="3"/>
     </row>
     <row r="209" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B209" s="2"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="22"/>
-      <c r="G209" s="22"/>
-      <c r="H209" s="22"/>
-      <c r="I209" s="22"/>
-      <c r="J209" s="22"/>
+      <c r="B209" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C209" s="3">
+        <v>9</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="K209" s="3"/>
     </row>
     <row r="210" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B210" s="2"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="22"/>
-      <c r="H210" s="22"/>
-      <c r="I210" s="22"/>
-      <c r="J210" s="22"/>
+      <c r="B210" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C210" s="3">
+        <v>10</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
+      <c r="J210" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="K210" s="3"/>
     </row>
     <row r="211" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4582,11 +4727,11 @@
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="22"/>
-      <c r="H211" s="22"/>
-      <c r="I211" s="22"/>
-      <c r="J211" s="22"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+      <c r="J211" s="21"/>
       <c r="K211" s="3"/>
     </row>
     <row r="212" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4594,11 +4739,11 @@
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="22"/>
-      <c r="H212" s="22"/>
-      <c r="I212" s="22"/>
-      <c r="J212" s="22"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
+      <c r="J212" s="21"/>
       <c r="K212" s="3"/>
     </row>
     <row r="213" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4606,11 +4751,11 @@
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="22"/>
-      <c r="H213" s="22"/>
-      <c r="I213" s="22"/>
-      <c r="J213" s="22"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="21"/>
       <c r="K213" s="3"/>
     </row>
     <row r="214" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4618,11 +4763,11 @@
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
-      <c r="F214" s="22"/>
-      <c r="G214" s="22"/>
-      <c r="H214" s="22"/>
-      <c r="I214" s="22"/>
-      <c r="J214" s="22"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="21"/>
       <c r="K214" s="3"/>
     </row>
     <row r="215" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4630,11 +4775,11 @@
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
-      <c r="F215" s="22"/>
-      <c r="G215" s="22"/>
-      <c r="H215" s="22"/>
-      <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="21"/>
       <c r="K215" s="3"/>
     </row>
   </sheetData>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>23/1/2017</t>
+  </si>
+  <si>
+    <t>24/1/2017</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,8 +889,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:Q215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,24 +910,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="4" spans="2:17" s="22" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -4471,7 +4474,7 @@
       <c r="K199" s="3"/>
     </row>
     <row r="200" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B200" s="28"/>
+      <c r="B200" s="27"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -4500,7 +4503,9 @@
       </c>
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
+      <c r="I201" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J201" s="21" t="s">
         <v>45</v>
       </c>
@@ -4524,7 +4529,9 @@
       </c>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
-      <c r="I202" s="21"/>
+      <c r="I202" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J202" s="21" t="s">
         <v>44</v>
       </c>
@@ -4548,7 +4555,9 @@
       </c>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
-      <c r="I203" s="21"/>
+      <c r="I203" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J203" s="21" t="s">
         <v>46</v>
       </c>
@@ -4572,7 +4581,9 @@
       </c>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
-      <c r="I204" s="21"/>
+      <c r="I204" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J204" s="21" t="s">
         <v>47</v>
       </c>
@@ -4596,7 +4607,9 @@
       </c>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
+      <c r="I205" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J205" s="21" t="s">
         <v>48</v>
       </c>
@@ -4620,7 +4633,9 @@
       </c>
       <c r="G206" s="21"/>
       <c r="H206" s="21"/>
-      <c r="I206" s="21"/>
+      <c r="I206" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J206" s="21" t="s">
         <v>49</v>
       </c>
@@ -4644,7 +4659,9 @@
       </c>
       <c r="G207" s="21"/>
       <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
+      <c r="I207" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J207" s="21" t="s">
         <v>45</v>
       </c>
@@ -4668,7 +4685,9 @@
       </c>
       <c r="G208" s="21"/>
       <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
+      <c r="I208" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J208" s="21" t="s">
         <v>44</v>
       </c>
@@ -4692,7 +4711,9 @@
       </c>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
-      <c r="I209" s="21"/>
+      <c r="I209" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J209" s="21" t="s">
         <v>46</v>
       </c>
@@ -4716,7 +4737,9 @@
       </c>
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
-      <c r="I210" s="21"/>
+      <c r="I210" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J210" s="21" t="s">
         <v>47</v>
       </c>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -889,8 +889,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:Q215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,7 +4270,9 @@
       <c r="G192" s="21">
         <v>4</v>
       </c>
-      <c r="H192" s="21"/>
+      <c r="H192" s="21">
+        <v>3</v>
+      </c>
       <c r="I192" s="21" t="s">
         <v>79</v>
       </c>
@@ -4300,14 +4302,18 @@
       <c r="G193" s="21">
         <v>5</v>
       </c>
-      <c r="H193" s="21"/>
+      <c r="H193" s="21">
+        <v>4</v>
+      </c>
       <c r="I193" s="21" t="s">
         <v>79</v>
       </c>
       <c r="J193" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K193" s="3"/>
+      <c r="K193" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="194" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
@@ -4408,14 +4414,18 @@
       <c r="G197" s="21">
         <v>4</v>
       </c>
-      <c r="H197" s="21"/>
+      <c r="H197" s="21">
+        <v>4</v>
+      </c>
       <c r="I197" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J197" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K197" s="3"/>
+      <c r="K197" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="198" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
@@ -4464,14 +4474,18 @@
       <c r="G199" s="21">
         <v>5</v>
       </c>
-      <c r="H199" s="21"/>
+      <c r="H199" s="21">
+        <v>5</v>
+      </c>
       <c r="I199" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J199" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K199" s="3"/>
+      <c r="K199" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="200" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B200" s="27"/>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -15,10 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Complete">Sheet1!$N$6:$N$7</definedName>
-    <definedName name="sta">Sheet1!$O$7:$O$9</definedName>
-    <definedName name="STATUS">Sheet1!$K$5:$K$13</definedName>
-    <definedName name="Trangthai">Sheet1!$N$6:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$220</definedName>
+    <definedName name="Complete">Sheet1!$N$3:$N$4</definedName>
+    <definedName name="sta">Sheet1!$O$4:$O$6</definedName>
+    <definedName name="STATUS">Sheet1!$K$2:$K$10</definedName>
+    <definedName name="Trangthai">Sheet1!$N$3:$N$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +51,6 @@
     <t>ASSIGN TO</t>
   </si>
   <si>
-    <t>ASSIGN TASK</t>
-  </si>
-  <si>
     <t xml:space="preserve">WEEK 01 </t>
   </si>
   <si>
@@ -300,13 +298,160 @@
   </si>
   <si>
     <t>24/1/2017</t>
+  </si>
+  <si>
+    <t>20/1/2017</t>
+  </si>
+  <si>
+    <t>Develop Team rule &amp; policy</t>
+  </si>
+  <si>
+    <t>Kick-off</t>
+  </si>
+  <si>
+    <t>Develop Team Charter</t>
+  </si>
+  <si>
+    <t>Develop Project Charter</t>
+  </si>
+  <si>
+    <t>Define SWOT technology</t>
+  </si>
+  <si>
+    <t>Define Process Decision</t>
+  </si>
+  <si>
+    <t>Define SWOT Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK 02 </t>
+  </si>
+  <si>
+    <t>Define SWOT individual</t>
+  </si>
+  <si>
+    <t>13/9/2016</t>
+  </si>
+  <si>
+    <t>Update Process Decision</t>
+  </si>
+  <si>
+    <t>14/9/2016</t>
+  </si>
+  <si>
+    <t>Update Project Charter</t>
+  </si>
+  <si>
+    <t>15/9/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK 03 </t>
+  </si>
+  <si>
+    <t>Define effort log template</t>
+  </si>
+  <si>
+    <t>Define weekly report template</t>
+  </si>
+  <si>
+    <t>Define project plan template</t>
+  </si>
+  <si>
+    <t>Define configuration template</t>
+  </si>
+  <si>
+    <t>Define communication plan template</t>
+  </si>
+  <si>
+    <t>18/9/2016</t>
+  </si>
+  <si>
+    <t>19/9/2016</t>
+  </si>
+  <si>
+    <t>20/9/2016</t>
+  </si>
+  <si>
+    <t>Define change management template</t>
+  </si>
+  <si>
+    <t>Define measurement plan template</t>
+  </si>
+  <si>
+    <t>Define risk management plan template</t>
+  </si>
+  <si>
+    <t>Define WBS template</t>
+  </si>
+  <si>
+    <t>Define requirement management plan template</t>
+  </si>
+  <si>
+    <t>21/9/2016</t>
+  </si>
+  <si>
+    <t>Define achitecture and design plan template</t>
+  </si>
+  <si>
+    <t>WEEK 04</t>
+  </si>
+  <si>
+    <t>Define test plan template</t>
+  </si>
+  <si>
+    <t>Define vision and scope template</t>
+  </si>
+  <si>
+    <t>Define concept of operation template</t>
+  </si>
+  <si>
+    <t>Define SRS template</t>
+  </si>
+  <si>
+    <t>Define detail design template</t>
+  </si>
+  <si>
+    <t>Define function testcase template</t>
+  </si>
+  <si>
+    <t>Define user acceptance testcase template</t>
+  </si>
+  <si>
+    <t>Define test report template</t>
+  </si>
+  <si>
+    <t>Develop Work Break Down Structure</t>
+  </si>
+  <si>
+    <t>Develop Requirement Plan</t>
+  </si>
+  <si>
+    <t>25/9/2016</t>
+  </si>
+  <si>
+    <t>26/9/2016</t>
+  </si>
+  <si>
+    <t>27/9/2016</t>
+  </si>
+  <si>
+    <t>28/9/2016</t>
+  </si>
+  <si>
+    <t>29/9/2016</t>
+  </si>
+  <si>
+    <t>Develop Implement Plan</t>
+  </si>
+  <si>
+    <t>Develop Architecture and Design Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +461,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -501,48 +640,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,19 +693,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:Q215"/>
+  <dimension ref="B1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,247 +1040,569 @@
     <col min="3" max="3" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:15" s="22" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="4" spans="2:17" s="22" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="28">
+        <v>42469</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21">
+        <v>2</v>
+      </c>
+      <c r="I2" s="28">
+        <v>42469</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="28">
+        <v>42469</v>
+      </c>
+      <c r="G3" s="21">
+        <v>4</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2</v>
+      </c>
+      <c r="I3" s="28">
+        <v>42469</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28">
+        <v>42469</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="28">
+        <v>42469</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="28">
+        <v>42469</v>
+      </c>
+      <c r="G5" s="21">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+      <c r="I5" s="28">
+        <v>42469</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="28">
+        <v>42469</v>
+      </c>
+      <c r="G6" s="21">
+        <v>3</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2</v>
+      </c>
+      <c r="I6" s="28">
+        <v>42469</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="28">
+        <v>42469</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2</v>
+      </c>
+      <c r="I7" s="28">
+        <v>42469</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="D8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="28">
+        <v>42499</v>
+      </c>
+      <c r="G8" s="21">
+        <v>4</v>
+      </c>
+      <c r="H8" s="21">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28">
+        <v>42530</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="28">
+        <v>42530</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
+      <c r="I9" s="28">
+        <v>42530</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="I10" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G11" s="21">
+        <v>3</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G13" s="21">
         <v>4</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="H13" s="21">
+        <v>3</v>
+      </c>
+      <c r="I13" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3</v>
+      </c>
+      <c r="H14" s="21">
+        <v>4</v>
+      </c>
+      <c r="I14" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3</v>
+      </c>
+      <c r="H15" s="21">
         <v>5</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="3"/>
-      <c r="O7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="3"/>
-      <c r="O8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="3"/>
-      <c r="O9" s="4" t="s">
+      <c r="I15" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="28">
+        <v>42560</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2</v>
+      </c>
+      <c r="I16" s="28">
+        <v>42591</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="28">
+        <v>42591</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3</v>
+      </c>
+      <c r="I17" s="28">
+        <v>42622</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1151,227 +1613,626 @@
       <c r="J18" s="21"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="28">
+        <v>42683</v>
+      </c>
+      <c r="G19" s="21">
+        <v>4</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2</v>
+      </c>
+      <c r="I19" s="28">
+        <v>42713</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="21">
+        <v>2</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="21">
+        <v>2</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="21">
+        <v>2</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="21">
+        <v>2</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="21">
+        <v>2</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>4</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="21">
+        <v>4</v>
+      </c>
+      <c r="H30" s="21">
+        <v>3</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="21">
+        <v>3</v>
+      </c>
+      <c r="H31" s="21">
+        <v>3</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="21">
+        <v>2</v>
+      </c>
+      <c r="H32" s="21">
+        <v>2</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="21">
+        <v>5</v>
+      </c>
+      <c r="H33" s="21">
+        <v>6</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="21">
+        <v>3</v>
+      </c>
+      <c r="H34" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="21">
+        <v>3</v>
+      </c>
+      <c r="H35" s="21">
+        <v>3</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="21">
+        <v>2</v>
+      </c>
+      <c r="H36" s="21">
+        <v>3</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="21">
+        <v>2</v>
+      </c>
+      <c r="H37" s="21">
+        <v>2</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="3">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="21">
+        <v>3</v>
+      </c>
+      <c r="H38" s="21">
+        <v>2</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1382,150 +2243,371 @@
       <c r="J39" s="21"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+    <row r="40" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="F40" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="21">
+        <v>6</v>
+      </c>
+      <c r="H40" s="21">
+        <v>5</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+    <row r="41" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="F41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="21">
+        <v>4</v>
+      </c>
+      <c r="H41" s="21">
+        <v>3</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+    <row r="42" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="F42" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="21">
+        <v>5</v>
+      </c>
+      <c r="H42" s="21">
+        <v>3</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="F43" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="21">
+        <v>4</v>
+      </c>
+      <c r="H43" s="21">
+        <v>4</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+    <row r="44" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="F44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="21">
+        <v>5</v>
+      </c>
+      <c r="H44" s="21">
+        <v>3</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+    <row r="45" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="21">
+        <v>2</v>
+      </c>
+      <c r="H45" s="21">
+        <v>2</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="F46" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="21">
+        <v>4</v>
+      </c>
+      <c r="H46" s="21">
+        <v>5</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="47" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="F47" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="21">
+        <v>3</v>
+      </c>
+      <c r="H47" s="21">
+        <v>3</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+    <row r="48" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="F48" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="21">
+        <v>4</v>
+      </c>
+      <c r="H48" s="21">
+        <v>4</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+    <row r="49" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="F49" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="21">
+        <v>4</v>
+      </c>
+      <c r="H49" s="21">
+        <v>6</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+    <row r="50" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="3">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="F50" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="21">
+        <v>4</v>
+      </c>
+      <c r="H50" s="21">
+        <v>2</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+    <row r="51" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="3">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="F51" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="21">
+        <v>4</v>
+      </c>
+      <c r="H51" s="21">
+        <v>2</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+    <row r="52" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="F52" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="21">
+        <v>6</v>
+      </c>
+      <c r="H52" s="21">
+        <v>5</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1536,7 +2618,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1547,7 +2629,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1558,7 +2640,7 @@
       <c r="J55" s="21"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1569,7 +2651,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1580,7 +2662,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1591,7 +2673,7 @@
       <c r="J58" s="21"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1602,7 +2684,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1613,7 +2695,7 @@
       <c r="J60" s="21"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1624,7 +2706,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1635,7 +2717,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1646,7 +2728,7 @@
       <c r="J63" s="21"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2405,129 +3487,87 @@
       <c r="J132" s="21"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="9">
-        <v>1</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F133" s="13">
-        <v>42767</v>
-      </c>
-      <c r="G133" s="15">
-        <v>4</v>
-      </c>
-      <c r="H133" s="17">
-        <v>3</v>
-      </c>
-      <c r="I133" s="13">
-        <v>42795</v>
-      </c>
-      <c r="J133" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="9">
-        <v>2</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F134" s="13">
-        <v>42795</v>
-      </c>
-      <c r="G134" s="15">
-        <v>2</v>
-      </c>
-      <c r="H134" s="17">
-        <v>1</v>
-      </c>
-      <c r="I134" s="13">
-        <v>42826</v>
-      </c>
-      <c r="J134" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="3"/>
     </row>
     <row r="135" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135" s="9">
-        <v>3</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F135" s="13">
-        <v>42826</v>
+        <v>42767</v>
       </c>
       <c r="G135" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H135" s="17">
         <v>3</v>
       </c>
       <c r="I135" s="13">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" s="9">
-        <v>4</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F136" s="13">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="G136" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136" s="13">
-        <v>42887</v>
+        <v>42826</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>13</v>
@@ -2535,95 +3575,95 @@
     </row>
     <row r="137" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137" s="9">
-        <v>5</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F137" s="13">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="G137" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H137" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137" s="13">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C138" s="9">
-        <v>6</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F138" s="13">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="G138" s="15">
         <v>3</v>
       </c>
       <c r="H138" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" s="13">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="J138" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" s="9">
-        <v>7</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F139" s="13">
-        <v>42826</v>
+        <v>42767</v>
       </c>
       <c r="G139" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H139" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" s="13">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="J139" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>13</v>
@@ -2631,127 +3671,127 @@
     </row>
     <row r="140" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F140" s="13">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="G140" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H140" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" s="13">
-        <v>42795</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>46</v>
+        <v>42826</v>
+      </c>
+      <c r="J140" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="11">
         <v>9</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>59</v>
+      <c r="C141" s="9">
+        <v>7</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F141" s="14">
+        <v>51</v>
+      </c>
+      <c r="F141" s="13">
         <v>42826</v>
       </c>
-      <c r="G141" s="16">
-        <v>2</v>
-      </c>
-      <c r="H141" s="18">
-        <v>4</v>
+      <c r="G141" s="15">
+        <v>5</v>
+      </c>
+      <c r="H141" s="17">
+        <v>3</v>
       </c>
       <c r="I141" s="13">
-        <v>42826</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>46</v>
+        <v>42887</v>
+      </c>
+      <c r="J141" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="5">
-        <v>10</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C142" s="9">
+        <v>8</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F142" s="8">
-        <v>42856</v>
-      </c>
-      <c r="G142" s="7">
-        <v>3</v>
-      </c>
-      <c r="H142" s="19">
-        <v>3</v>
+      <c r="F142" s="13">
+        <v>42767</v>
+      </c>
+      <c r="G142" s="15">
+        <v>2</v>
+      </c>
+      <c r="H142" s="17">
+        <v>1</v>
       </c>
       <c r="I142" s="13">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="5">
-        <v>11</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="C143" s="11">
+        <v>9</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F143" s="8">
-        <v>42736</v>
-      </c>
-      <c r="G143" s="7">
+        <v>53</v>
+      </c>
+      <c r="F143" s="14">
+        <v>42826</v>
+      </c>
+      <c r="G143" s="16">
+        <v>2</v>
+      </c>
+      <c r="H143" s="18">
         <v>4</v>
       </c>
-      <c r="H143" s="19">
-        <v>3</v>
-      </c>
       <c r="I143" s="13">
-        <v>42795</v>
-      </c>
-      <c r="J143" s="25" t="s">
-        <v>47</v>
+        <v>42826</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>13</v>
@@ -2759,112 +3799,112 @@
     </row>
     <row r="144" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="5">
         <v>10</v>
       </c>
-      <c r="C144" s="5">
-        <v>12</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>62</v>
+      <c r="D144" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F144" s="8">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="G144" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H144" s="19">
         <v>3</v>
       </c>
       <c r="I144" s="13">
-        <v>42826</v>
-      </c>
-      <c r="J144" s="25" t="s">
-        <v>47</v>
+        <v>42887</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" s="5">
-        <v>13</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F145" s="8">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="G145" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H145" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I145" s="13">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F146" s="8">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="G146" s="7">
         <v>2</v>
       </c>
       <c r="H146" s="19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I146" s="13">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" s="5">
-        <v>15</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F147" s="8">
         <v>42826</v>
@@ -2873,45 +3913,45 @@
         <v>2</v>
       </c>
       <c r="H147" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" s="13">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="J147" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" s="5">
-        <v>16</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F148" s="8">
-        <v>42856</v>
+        <v>42767</v>
       </c>
       <c r="G148" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148" s="19">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I148" s="13">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="J148" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>13</v>
@@ -2919,19 +3959,19 @@
     </row>
     <row r="149" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" s="5">
-        <v>17</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F149" s="8">
-        <v>42887</v>
+        <v>42826</v>
       </c>
       <c r="G149" s="7">
         <v>2</v>
@@ -2940,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="I149" s="13">
-        <v>42887</v>
+        <v>42826</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>13</v>
@@ -2951,86 +3991,86 @@
     </row>
     <row r="150" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" s="5">
-        <v>18</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F150" s="8">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="G150" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H150" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I150" s="13">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151" s="5">
-        <v>19</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F151" s="8">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="G151" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H151" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" s="13">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F152" s="8">
         <v>42767</v>
       </c>
       <c r="G152" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H152" s="19">
         <v>2</v>
@@ -3039,30 +4079,30 @@
         <v>42795</v>
       </c>
       <c r="J152" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C153" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F153" s="8">
         <v>42795</v>
       </c>
       <c r="G153" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H153" s="19">
         <v>2</v>
@@ -3071,594 +4111,594 @@
         <v>42826</v>
       </c>
       <c r="J153" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="5">
+        <v>20</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F154" s="8">
+        <v>42767</v>
+      </c>
+      <c r="G154" s="7">
+        <v>4</v>
+      </c>
+      <c r="H154" s="19">
+        <v>2</v>
+      </c>
+      <c r="I154" s="13">
+        <v>42795</v>
+      </c>
+      <c r="J154" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="155" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="5">
+        <v>21</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F155" s="8">
+        <v>42795</v>
+      </c>
+      <c r="G155" s="7">
         <v>1</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F155" s="8">
-        <v>42979</v>
-      </c>
-      <c r="G155" s="7">
-        <v>5</v>
-      </c>
-      <c r="H155" s="7">
-        <v>4</v>
-      </c>
-      <c r="I155" s="8">
-        <v>43009</v>
-      </c>
-      <c r="J155" s="7" t="s">
-        <v>44</v>
+      <c r="H155" s="19">
+        <v>2</v>
+      </c>
+      <c r="I155" s="13">
+        <v>42826</v>
+      </c>
+      <c r="J155" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="3">
-        <v>2</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F156" s="8">
-        <v>43040</v>
-      </c>
-      <c r="G156" s="7">
-        <v>6</v>
-      </c>
-      <c r="H156" s="7">
-        <v>3</v>
-      </c>
-      <c r="I156" s="8">
-        <v>43040</v>
-      </c>
-      <c r="J156" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="3"/>
     </row>
     <row r="157" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157" s="3">
-        <v>3</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F157" s="8">
-        <v>43070</v>
+        <v>42979</v>
       </c>
       <c r="G157" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H157" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I157" s="8">
-        <v>43070</v>
+        <v>43009</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C158" s="3">
-        <v>4</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F158" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G158" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H158" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>50</v>
+      <c r="F159" s="8">
+        <v>43070</v>
       </c>
       <c r="G159" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H159" s="7">
-        <v>1</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="I159" s="8">
+        <v>43070</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F160" s="8">
+        <v>43070</v>
       </c>
       <c r="G160" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" s="7">
-        <v>1</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="I160" s="8">
+        <v>43070</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G161" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" s="7">
         <v>1</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" s="3">
-        <v>8</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F162" s="8">
-        <v>43009</v>
+        <v>51</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G162" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" s="7">
-        <v>2</v>
-      </c>
-      <c r="I162" s="8">
-        <v>43040</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" s="3">
-        <v>9</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F163" s="8">
-        <v>43040</v>
+        <v>51</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G163" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H163" s="7">
-        <v>3</v>
-      </c>
-      <c r="I163" s="8">
-        <v>43040</v>
+        <v>1</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" s="3">
-        <v>10</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F164" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="G164" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" s="8">
         <v>43040</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="3">
         <v>9</v>
       </c>
-      <c r="C165" s="3">
-        <v>11</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>25</v>
+      <c r="D165" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F165" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G165" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H165" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C166" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F166" s="8">
+        <v>43040</v>
       </c>
       <c r="G166" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" s="7">
-        <v>1</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="I166" s="8">
+        <v>43040</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C167" s="3">
-        <v>13</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F167" s="8">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="G167" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H167" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" s="8">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" s="3">
-        <v>14</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F168" s="8">
-        <v>43040</v>
+        <v>53</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G168" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H168" s="7">
-        <v>4</v>
-      </c>
-      <c r="I168" s="8">
-        <v>43070</v>
+        <v>1</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" s="3">
-        <v>15</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F169" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="G169" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H169" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C170" s="3">
-        <v>16</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F170" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G170" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H170" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I170" s="8">
         <v>43070</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C171" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F171" s="7" t="s">
-        <v>50</v>
+      <c r="F171" s="8">
+        <v>43040</v>
       </c>
       <c r="G171" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171" s="7">
-        <v>2</v>
-      </c>
-      <c r="I171" s="7" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="I171" s="8">
+        <v>43040</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F172" s="8">
+        <v>43070</v>
       </c>
       <c r="G172" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H172" s="7">
-        <v>3</v>
-      </c>
-      <c r="I172" s="7" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="I172" s="8">
+        <v>43070</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172" s="3" t="s">
         <v>13</v>
@@ -3666,223 +4706,223 @@
     </row>
     <row r="173" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173" s="3">
-        <v>19</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F173" s="8">
-        <v>43009</v>
+        <v>51</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G173" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H173" s="7">
         <v>2</v>
       </c>
-      <c r="I173" s="8">
-        <v>43009</v>
+      <c r="I173" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J173" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C174" s="3">
-        <v>20</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F174" s="8">
-        <v>43040</v>
+        <v>51</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G174" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" s="7">
-        <v>2</v>
-      </c>
-      <c r="I174" s="8">
-        <v>43040</v>
+        <v>3</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C175" s="3">
-        <v>21</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F175" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="G175" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H175" s="7">
         <v>2</v>
       </c>
       <c r="I175" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C176" s="3">
-        <v>22</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F176" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G176" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H176" s="7">
         <v>2</v>
       </c>
       <c r="I176" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C177" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F177" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G177" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C178" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="F178" s="8">
+        <v>43070</v>
       </c>
       <c r="G178" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" s="7">
-        <v>3</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="I178" s="8">
+        <v>43070</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C179" s="3">
-        <v>25</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F179" s="8">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="G179" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H179" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179" s="8">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>13</v>
@@ -3890,159 +4930,159 @@
     </row>
     <row r="180" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C180" s="3">
-        <v>26</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F180" s="8">
-        <v>43040</v>
+        <v>53</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G180" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180" s="7">
-        <v>2</v>
-      </c>
-      <c r="I180" s="8">
-        <v>43040</v>
+        <v>3</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C181" s="3">
-        <v>27</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F181" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="G181" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H181" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I181" s="8">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C182" s="3">
-        <v>28</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F182" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G182" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H182" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" s="8">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="J182" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C183" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F183" s="7" t="s">
-        <v>50</v>
+      <c r="F183" s="8">
+        <v>43040</v>
       </c>
       <c r="G183" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H183" s="7">
-        <v>1</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="I183" s="8">
+        <v>43040</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C184" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="F184" s="8">
+        <v>43070</v>
       </c>
       <c r="G184" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" s="7">
-        <v>1</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="I184" s="8">
+        <v>43070</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K184" s="3" t="s">
         <v>13</v>
@@ -4050,737 +5090,789 @@
     </row>
     <row r="185" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C185" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G185" s="7">
+        <v>2</v>
+      </c>
+      <c r="H185" s="7">
         <v>1</v>
       </c>
-      <c r="H185" s="7">
-        <v>2</v>
-      </c>
       <c r="I185" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C186" s="3">
-        <v>32</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F186" s="8">
-        <v>43009</v>
+        <v>51</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G186" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186" s="7">
-        <v>2</v>
-      </c>
-      <c r="I186" s="8">
-        <v>43009</v>
+        <v>1</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C187" s="3">
-        <v>33</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F187" s="8">
-        <v>43040</v>
+        <v>51</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G187" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" s="7">
         <v>2</v>
       </c>
-      <c r="I187" s="8">
-        <v>43040</v>
+      <c r="I187" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C188" s="3">
-        <v>34</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F188" s="8">
-        <v>43070</v>
+        <v>43009</v>
       </c>
       <c r="G188" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" s="8">
-        <v>43070</v>
+        <v>43009</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C189" s="3">
-        <v>35</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F189" s="7" t="s">
-        <v>51</v>
+      <c r="F189" s="8">
+        <v>43040</v>
       </c>
       <c r="G189" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H189" s="7">
-        <v>4</v>
-      </c>
-      <c r="I189" s="7" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="I189" s="8">
+        <v>43040</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="3">
+        <v>34</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F190" s="8">
+        <v>43070</v>
+      </c>
+      <c r="G190" s="7">
+        <v>2</v>
+      </c>
+      <c r="H190" s="7">
+        <v>3</v>
+      </c>
+      <c r="I190" s="8">
+        <v>43070</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K190" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="21"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="3"/>
     </row>
     <row r="191" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F191" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G191" s="21">
-        <v>6</v>
-      </c>
-      <c r="H191" s="21">
+        <v>51</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G191" s="7">
+        <v>3</v>
+      </c>
+      <c r="H191" s="7">
         <v>4</v>
       </c>
-      <c r="I191" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J191" s="21" t="s">
-        <v>45</v>
+      <c r="I191" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J191" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="3">
-        <v>2</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F192" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G192" s="21">
-        <v>4</v>
-      </c>
-      <c r="H192" s="21">
-        <v>3</v>
-      </c>
-      <c r="I192" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J192" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="21"/>
+      <c r="J192" s="21"/>
+      <c r="K192" s="3"/>
     </row>
     <row r="193" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G193" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H193" s="21">
         <v>4</v>
       </c>
       <c r="I193" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J193" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" s="3">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G194" s="21">
         <v>4</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F194" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G194" s="21"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="21"/>
+      <c r="H194" s="21">
+        <v>3</v>
+      </c>
+      <c r="I194" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="J194" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K194" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="195" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" s="3">
+        <v>3</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F195" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G195" s="21">
         <v>5</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F195" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G195" s="21"/>
-      <c r="H195" s="21"/>
-      <c r="I195" s="21"/>
+      <c r="H195" s="21">
+        <v>4</v>
+      </c>
+      <c r="I195" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="J195" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K195" s="3"/>
+      <c r="K195" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="196" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G196" s="21">
-        <v>3</v>
-      </c>
-      <c r="H196" s="21">
-        <v>2</v>
-      </c>
-      <c r="I196" s="21" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
       <c r="J196" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K196" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K196" s="3"/>
     </row>
     <row r="197" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G197" s="21">
         <v>4</v>
       </c>
       <c r="H197" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I197" s="21" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J197" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G198" s="21">
-        <v>5</v>
-      </c>
-      <c r="H198" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H198" s="21">
+        <v>2</v>
+      </c>
       <c r="I198" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J198" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K198" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="199" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="3">
         <v>8</v>
       </c>
-      <c r="C199" s="3">
-        <v>10</v>
-      </c>
       <c r="D199" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G199" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H199" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I199" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J199" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="200" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B200" s="27"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="21"/>
-      <c r="I200" s="21"/>
-      <c r="J200" s="21"/>
-      <c r="K200" s="3"/>
+      <c r="B200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="3">
+        <v>9</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G200" s="21">
+        <v>5</v>
+      </c>
+      <c r="H200" s="21">
+        <v>4</v>
+      </c>
+      <c r="I200" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J200" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="201" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B201" s="2" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C201" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G201" s="21">
+        <v>5</v>
+      </c>
+      <c r="H201" s="21">
+        <v>5</v>
+      </c>
       <c r="I201" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J201" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K201" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="202" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B202" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C202" s="3">
-        <v>2</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F202" s="21" t="s">
-        <v>88</v>
-      </c>
+      <c r="B202" s="27"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="21"/>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
-      <c r="I202" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J202" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="I202" s="21"/>
+      <c r="J202" s="21"/>
       <c r="K202" s="3"/>
     </row>
     <row r="203" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C203" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
       <c r="I203" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J203" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K203" s="3"/>
     </row>
     <row r="204" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B204" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C204" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
       <c r="I204" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J204" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K204" s="3"/>
     </row>
     <row r="205" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B205" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C205" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F205" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
       <c r="I205" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J205" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K205" s="3"/>
     </row>
     <row r="206" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B206" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C206" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F206" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G206" s="21"/>
       <c r="H206" s="21"/>
       <c r="I206" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J206" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K206" s="3"/>
     </row>
     <row r="207" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B207" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C207" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F207" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G207" s="21"/>
       <c r="H207" s="21"/>
       <c r="I207" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J207" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K207" s="3"/>
     </row>
     <row r="208" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C208" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G208" s="21"/>
       <c r="H208" s="21"/>
       <c r="I208" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J208" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K208" s="3"/>
     </row>
     <row r="209" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B209" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C209" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
       <c r="I209" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J209" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K209" s="3"/>
     </row>
     <row r="210" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C210" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E210" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F210" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
       <c r="I210" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J210" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K210" s="3"/>
     </row>
     <row r="211" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B211" s="2"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="21"/>
+      <c r="B211" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" s="3">
+        <v>9</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F211" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
+      <c r="I211" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J211" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="K211" s="3"/>
     </row>
     <row r="212" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B212" s="2"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="21"/>
+      <c r="B212" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" s="3">
+        <v>10</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G212" s="21"/>
       <c r="H212" s="21"/>
-      <c r="I212" s="21"/>
-      <c r="J212" s="21"/>
+      <c r="I212" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J212" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="K212" s="3"/>
     </row>
     <row r="213" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -4819,15 +5911,36 @@
       <c r="J215" s="21"/>
       <c r="K215" s="3"/>
     </row>
+    <row r="216" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B216" s="2"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="21"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B217" s="2"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+      <c r="J217" s="21"/>
+      <c r="K217" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:Q2"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
       <formula1>Trangthai</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K22 K24:K41 K44:K71 K73:K81 K84:K92 K95:K131 K133:K215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K135:K217 K46:K73 K75:K83 K86:K94 K97:K133 J27 K2:K26 K28:K43">
       <formula1>sta</formula1>
     </dataValidation>
   </dataValidations>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\DELIVERABLE\TASK_ASSIGN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <definedName name="STATUS">Sheet1!$K$2:$K$10</definedName>
     <definedName name="Trangthai">Sheet1!$N$3:$N$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -522,7 +517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -907,7 +902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1101,7 +1096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1112,8 +1107,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="B184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6415,7 +6410,9 @@
       <c r="F197" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G197" s="20"/>
+      <c r="G197" s="20">
+        <v>4</v>
+      </c>
       <c r="H197" s="20"/>
       <c r="I197" s="20" t="s">
         <v>87</v>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="4185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="246">
   <si>
     <t>ID</t>
   </si>
@@ -661,6 +661,114 @@
   </si>
   <si>
     <t>Define Quality Attribute</t>
+  </si>
+  <si>
+    <t>Develop "Manage News" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Account" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Homepage" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Categories" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Banners" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Pop-ups" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Examination" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Q&amp;A" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Languages" Functional Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Account" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage News" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Homepage" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Banners" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Pop-ups" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Categories" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Examination" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Q&amp;A" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>Develop "Manage Languages" User Acceptance Testcase</t>
+  </si>
+  <si>
+    <t>13/12/2016</t>
+  </si>
+  <si>
+    <t>14/12/2016</t>
+  </si>
+  <si>
+    <t>17/12/2016</t>
+  </si>
+  <si>
+    <t>Modify Architecture and design plan</t>
+  </si>
+  <si>
+    <t>Modify Risk Management plan</t>
+  </si>
+  <si>
+    <t>Modify Change Management plan</t>
+  </si>
+  <si>
+    <t>Modify Test plan</t>
+  </si>
+  <si>
+    <t>20/12/2016</t>
+  </si>
+  <si>
+    <t>23/12/2016</t>
+  </si>
+  <si>
+    <t>Research Physical view</t>
+  </si>
+  <si>
+    <t>Research Dynamic view</t>
+  </si>
+  <si>
+    <t>27/12/2016</t>
+  </si>
+  <si>
+    <t>29/12/2016</t>
+  </si>
+  <si>
+    <t>28/12/2016</t>
+  </si>
+  <si>
+    <t>Draw Physical view draft</t>
+  </si>
+  <si>
+    <t>Draw Static view draft</t>
+  </si>
+  <si>
+    <t>Draw Dynamic view draft</t>
+  </si>
+  <si>
+    <t>Writting rationel</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O230"/>
+  <dimension ref="B1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,7 +4954,9 @@
       <c r="J111" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K111" s="27"/>
+      <c r="K111" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B112" s="25">
@@ -4876,7 +4986,9 @@
       <c r="J112" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="113" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B113" s="25">
@@ -4906,7 +5018,9 @@
       <c r="J113" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="114" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B114" s="25">
@@ -4936,7 +5050,9 @@
       <c r="J114" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B115" s="25">
@@ -4966,7 +5082,9 @@
       <c r="J115" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K115" s="2"/>
+      <c r="K115" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B116" s="25">
@@ -4996,7 +5114,9 @@
       <c r="J116" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="117" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B117" s="25">
@@ -5026,7 +5146,9 @@
       <c r="J117" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B118" s="25">
@@ -5056,7 +5178,9 @@
       <c r="J118" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="119" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B119" s="25">
@@ -5086,7 +5210,9 @@
       <c r="J119" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="120" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B120" s="25">
@@ -5116,7 +5242,9 @@
       <c r="J120" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="121" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B121" s="25">
@@ -5146,7 +5274,9 @@
       <c r="J121" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="122" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B122" s="25">
@@ -5176,7 +5306,9 @@
       <c r="J122" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K122" s="2"/>
+      <c r="K122" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="123" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B123" s="25">
@@ -5206,7 +5338,9 @@
       <c r="J123" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K123" s="2"/>
+      <c r="K123" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="124" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B124" s="25">
@@ -5236,7 +5370,9 @@
       <c r="J124" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K124" s="2"/>
+      <c r="K124" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="125" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B125" s="25">
@@ -5266,7 +5402,9 @@
       <c r="J125" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K125" s="2"/>
+      <c r="K125" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="126" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B126" s="25">
@@ -5296,323 +5434,805 @@
       <c r="J126" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="2"/>
+      <c r="K126" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B127" s="25">
+        <v>11</v>
+      </c>
+      <c r="C127" s="26">
+        <v>1</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G127" s="26">
+        <v>5</v>
+      </c>
+      <c r="H127" s="26">
+        <v>4</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J127" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="128" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="2"/>
+      <c r="B128" s="19">
+        <v>11</v>
+      </c>
+      <c r="C128" s="20">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G128" s="20">
+        <v>3</v>
+      </c>
+      <c r="H128" s="20">
+        <v>3</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J128" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="129" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="2"/>
+      <c r="B129" s="19">
+        <v>11</v>
+      </c>
+      <c r="C129" s="20">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G129" s="20">
+        <v>5</v>
+      </c>
+      <c r="H129" s="20">
+        <v>6</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J129" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="130" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B130" s="25"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="2"/>
+      <c r="B130" s="19">
+        <v>11</v>
+      </c>
+      <c r="C130" s="20">
+        <v>4</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G130" s="20">
+        <v>4</v>
+      </c>
+      <c r="H130" s="20">
+        <v>3</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J130" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="131" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B131" s="25"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="2"/>
+      <c r="B131" s="19">
+        <v>11</v>
+      </c>
+      <c r="C131" s="20">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G131" s="20">
+        <v>3</v>
+      </c>
+      <c r="H131" s="20">
+        <v>3</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J131" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="132" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B132" s="25"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="2"/>
+      <c r="B132" s="19">
+        <v>11</v>
+      </c>
+      <c r="C132" s="20">
+        <v>6</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G132" s="20">
+        <v>3</v>
+      </c>
+      <c r="H132" s="20">
+        <v>2</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J132" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="133" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B133" s="25"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="2"/>
+      <c r="B133" s="19">
+        <v>11</v>
+      </c>
+      <c r="C133" s="20">
+        <v>7</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G133" s="20">
+        <v>5</v>
+      </c>
+      <c r="H133" s="20">
+        <v>3</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J133" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B134" s="25"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="2"/>
+      <c r="B134" s="19">
+        <v>11</v>
+      </c>
+      <c r="C134" s="20">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G134" s="20">
+        <v>4</v>
+      </c>
+      <c r="H134" s="20">
+        <v>2</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J134" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="135" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B135" s="25"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="2"/>
+      <c r="B135" s="19">
+        <v>11</v>
+      </c>
+      <c r="C135" s="20">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G135" s="20">
+        <v>2</v>
+      </c>
+      <c r="H135" s="20">
+        <v>1</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J135" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="136" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B136" s="25"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="2"/>
+      <c r="B136" s="19">
+        <v>11</v>
+      </c>
+      <c r="C136" s="20">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G136" s="20">
+        <v>4</v>
+      </c>
+      <c r="H136" s="20">
+        <v>2</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J136" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="137" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B137" s="25"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="2"/>
+      <c r="B137" s="19">
+        <v>11</v>
+      </c>
+      <c r="C137" s="20">
+        <v>11</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G137" s="20">
+        <v>5</v>
+      </c>
+      <c r="H137" s="20">
+        <v>4</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J137" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="138" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B138" s="25"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="2"/>
+      <c r="B138" s="19">
+        <v>11</v>
+      </c>
+      <c r="C138" s="20">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G138" s="20">
+        <v>2</v>
+      </c>
+      <c r="H138" s="20">
+        <v>3</v>
+      </c>
+      <c r="I138" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J138" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="139" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B139" s="25"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="2"/>
+      <c r="B139" s="19">
+        <v>11</v>
+      </c>
+      <c r="C139" s="20">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G139" s="20">
+        <v>2</v>
+      </c>
+      <c r="H139" s="20">
+        <v>2</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J139" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="140" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B140" s="25"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="2"/>
+      <c r="B140" s="19">
+        <v>11</v>
+      </c>
+      <c r="C140" s="20">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G140" s="20">
+        <v>2</v>
+      </c>
+      <c r="H140" s="20">
+        <v>1</v>
+      </c>
+      <c r="I140" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J140" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="141" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B141" s="25"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="2"/>
+      <c r="B141" s="19">
+        <v>11</v>
+      </c>
+      <c r="C141" s="20">
+        <v>15</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G141" s="20">
+        <v>3</v>
+      </c>
+      <c r="H141" s="20">
+        <v>2</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J141" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="142" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B142" s="25"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="2"/>
+      <c r="B142" s="19">
+        <v>11</v>
+      </c>
+      <c r="C142" s="20">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G142" s="20">
+        <v>4</v>
+      </c>
+      <c r="H142" s="20">
+        <v>2</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J142" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="143" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B143" s="25"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="2"/>
+      <c r="B143" s="19">
+        <v>11</v>
+      </c>
+      <c r="C143" s="20">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G143" s="20">
+        <v>3</v>
+      </c>
+      <c r="H143" s="20">
+        <v>1</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J143" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="144" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B144" s="25"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B145" s="25"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B146" s="25"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B147" s="25"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B148" s="25"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B149" s="25"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="20"/>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="2"/>
+      <c r="B144" s="19">
+        <v>11</v>
+      </c>
+      <c r="C144" s="20">
+        <v>18</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G144" s="20">
+        <v>1</v>
+      </c>
+      <c r="H144" s="20">
+        <v>1</v>
+      </c>
+      <c r="I144" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J144" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B145" s="25">
+        <v>12</v>
+      </c>
+      <c r="C145" s="26">
+        <v>1</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G145" s="26">
+        <v>4</v>
+      </c>
+      <c r="H145" s="26">
+        <v>5</v>
+      </c>
+      <c r="I145" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J145" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K145" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B146" s="19">
+        <v>12</v>
+      </c>
+      <c r="C146" s="20">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G146" s="20">
+        <v>3</v>
+      </c>
+      <c r="H146" s="20">
+        <v>6</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J146" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B147" s="19">
+        <v>12</v>
+      </c>
+      <c r="C147" s="20">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G147" s="20">
+        <v>4</v>
+      </c>
+      <c r="H147" s="20">
+        <v>6</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J147" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B148" s="19">
+        <v>12</v>
+      </c>
+      <c r="C148" s="20">
+        <v>4</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G148" s="20">
+        <v>3</v>
+      </c>
+      <c r="H148" s="20">
+        <v>5</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J148" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B149" s="19">
+        <v>12</v>
+      </c>
+      <c r="C149" s="20">
+        <v>5</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G149" s="20">
+        <v>5</v>
+      </c>
+      <c r="H149" s="20">
+        <v>7</v>
+      </c>
+      <c r="I149" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J149" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B150" s="19">
+        <v>12</v>
+      </c>
+      <c r="C150" s="20">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G150" s="20">
+        <v>5</v>
+      </c>
+      <c r="H150" s="20">
+        <v>3</v>
+      </c>
+      <c r="I150" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J150" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="151" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B151" s="25">
-        <v>14</v>
-      </c>
-      <c r="C151" s="33">
+        <v>13</v>
+      </c>
+      <c r="C151" s="26">
         <v>1</v>
       </c>
-      <c r="D151" s="34" t="s">
-        <v>50</v>
+      <c r="D151" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F151" s="35">
-        <v>42767</v>
-      </c>
-      <c r="G151" s="33">
-        <v>4</v>
-      </c>
-      <c r="H151" s="36">
-        <v>3</v>
-      </c>
-      <c r="I151" s="35">
-        <v>42795</v>
-      </c>
-      <c r="J151" s="37" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G151" s="26">
+        <v>3</v>
+      </c>
+      <c r="H151" s="26">
+        <v>5</v>
+      </c>
+      <c r="I151" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J151" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="K151" s="27" t="s">
         <v>8</v>
@@ -5620,63 +6240,63 @@
     </row>
     <row r="152" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B152" s="19">
-        <v>14</v>
-      </c>
-      <c r="C152" s="14">
-        <v>2</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C152" s="20">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F152" s="12">
-        <v>42795</v>
-      </c>
-      <c r="G152" s="14">
-        <v>2</v>
-      </c>
-      <c r="H152" s="16">
-        <v>1</v>
-      </c>
-      <c r="I152" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J152" s="22" t="s">
-        <v>39</v>
+      <c r="F152" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G152" s="20">
+        <v>4</v>
+      </c>
+      <c r="H152" s="20">
+        <v>5</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J152" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B153" s="19">
-        <v>14</v>
-      </c>
-      <c r="C153" s="14">
-        <v>3</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="C153" s="20">
+        <v>3</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F153" s="12">
-        <v>42826</v>
-      </c>
-      <c r="G153" s="14">
-        <v>2</v>
-      </c>
-      <c r="H153" s="16">
-        <v>3</v>
-      </c>
-      <c r="I153" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J153" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G153" s="20">
+        <v>6</v>
+      </c>
+      <c r="H153" s="20">
+        <v>4</v>
+      </c>
+      <c r="I153" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J153" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>8</v>
@@ -5684,31 +6304,31 @@
     </row>
     <row r="154" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B154" s="19">
-        <v>14</v>
-      </c>
-      <c r="C154" s="14">
-        <v>4</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C154" s="20">
+        <v>4</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F154" s="12">
-        <v>42887</v>
-      </c>
-      <c r="G154" s="14">
-        <v>3</v>
-      </c>
-      <c r="H154" s="16">
-        <v>3</v>
-      </c>
-      <c r="I154" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J154" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G154" s="20">
+        <v>4</v>
+      </c>
+      <c r="H154" s="20">
+        <v>3</v>
+      </c>
+      <c r="I154" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J154" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>8</v>
@@ -5716,63 +6336,63 @@
     </row>
     <row r="155" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B155" s="19">
-        <v>14</v>
-      </c>
-      <c r="C155" s="14">
+        <v>13</v>
+      </c>
+      <c r="C155" s="20">
         <v>5</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>54</v>
+      <c r="D155" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F155" s="12">
-        <v>42767</v>
-      </c>
-      <c r="G155" s="14">
-        <v>4</v>
-      </c>
-      <c r="H155" s="16">
-        <v>2</v>
-      </c>
-      <c r="I155" s="12">
-        <v>42795</v>
-      </c>
-      <c r="J155" s="22" t="s">
-        <v>40</v>
+      <c r="F155" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G155" s="20">
+        <v>5</v>
+      </c>
+      <c r="H155" s="20">
+        <v>4</v>
+      </c>
+      <c r="I155" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J155" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B156" s="19">
-        <v>14</v>
-      </c>
-      <c r="C156" s="14">
+        <v>13</v>
+      </c>
+      <c r="C156" s="20">
         <v>6</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>55</v>
+      <c r="D156" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F156" s="12">
-        <v>42795</v>
-      </c>
-      <c r="G156" s="14">
-        <v>3</v>
-      </c>
-      <c r="H156" s="16">
-        <v>2</v>
-      </c>
-      <c r="I156" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J156" s="22" t="s">
-        <v>40</v>
+      <c r="F156" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G156" s="20">
+        <v>3</v>
+      </c>
+      <c r="H156" s="20">
+        <v>4</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J156" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>8</v>
@@ -5780,30 +6400,30 @@
     </row>
     <row r="157" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B157" s="19">
-        <v>14</v>
-      </c>
-      <c r="C157" s="14">
+        <v>13</v>
+      </c>
+      <c r="C157" s="20">
         <v>7</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>23</v>
+      <c r="D157" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F157" s="12">
-        <v>42826</v>
-      </c>
-      <c r="G157" s="14">
-        <v>5</v>
-      </c>
-      <c r="H157" s="16">
-        <v>3</v>
-      </c>
-      <c r="I157" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J157" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G157" s="20">
+        <v>3</v>
+      </c>
+      <c r="H157" s="20">
+        <v>4</v>
+      </c>
+      <c r="I157" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J157" s="20" t="s">
         <v>40</v>
       </c>
       <c r="K157" s="2" t="s">
@@ -5812,31 +6432,31 @@
     </row>
     <row r="158" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B158" s="19">
-        <v>14</v>
-      </c>
-      <c r="C158" s="14">
-        <v>8</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="C158" s="20">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F158" s="12">
-        <v>42767</v>
-      </c>
-      <c r="G158" s="14">
-        <v>2</v>
-      </c>
-      <c r="H158" s="16">
-        <v>1</v>
-      </c>
-      <c r="I158" s="12">
-        <v>42795</v>
-      </c>
-      <c r="J158" s="11" t="s">
-        <v>41</v>
+      <c r="F158" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G158" s="20">
+        <v>4</v>
+      </c>
+      <c r="H158" s="20">
+        <v>3</v>
+      </c>
+      <c r="I158" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J158" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>8</v>
@@ -5844,63 +6464,63 @@
     </row>
     <row r="159" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B159" s="19">
-        <v>14</v>
-      </c>
-      <c r="C159" s="15">
+        <v>13</v>
+      </c>
+      <c r="C159" s="20">
         <v>9</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>54</v>
+      <c r="D159" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F159" s="13">
-        <v>42826</v>
-      </c>
-      <c r="G159" s="15">
-        <v>2</v>
-      </c>
-      <c r="H159" s="17">
-        <v>4</v>
-      </c>
-      <c r="I159" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J159" s="11" t="s">
-        <v>41</v>
+      <c r="F159" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G159" s="20">
+        <v>5</v>
+      </c>
+      <c r="H159" s="20">
+        <v>4</v>
+      </c>
+      <c r="I159" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J159" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B160" s="19">
-        <v>14</v>
-      </c>
-      <c r="C160" s="6">
+        <v>13</v>
+      </c>
+      <c r="C160" s="20">
         <v>10</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>37</v>
+      <c r="D160" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F160" s="7">
-        <v>42856</v>
-      </c>
-      <c r="G160" s="6">
-        <v>3</v>
-      </c>
-      <c r="H160" s="18">
-        <v>3</v>
-      </c>
-      <c r="I160" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J160" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G160" s="20">
+        <v>3</v>
+      </c>
+      <c r="H160" s="20">
+        <v>1</v>
+      </c>
+      <c r="I160" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J160" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>8</v>
@@ -5908,223 +6528,223 @@
     </row>
     <row r="161" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B161" s="19">
-        <v>14</v>
-      </c>
-      <c r="C161" s="6">
+        <v>13</v>
+      </c>
+      <c r="C161" s="20">
         <v>11</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>56</v>
+      <c r="D161" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F161" s="7">
-        <v>42736</v>
-      </c>
-      <c r="G161" s="6">
-        <v>4</v>
-      </c>
-      <c r="H161" s="18">
-        <v>3</v>
-      </c>
-      <c r="I161" s="12">
+      <c r="F161" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G161" s="20">
+        <v>3</v>
+      </c>
+      <c r="H161" s="20">
+        <v>4</v>
+      </c>
+      <c r="I161" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J161" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B162" s="25">
+        <v>14</v>
+      </c>
+      <c r="C162" s="33">
+        <v>1</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E162" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162" s="35">
+        <v>42767</v>
+      </c>
+      <c r="G162" s="33">
+        <v>4</v>
+      </c>
+      <c r="H162" s="36">
+        <v>3</v>
+      </c>
+      <c r="I162" s="35">
         <v>42795</v>
       </c>
-      <c r="J161" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B162" s="19">
-        <v>14</v>
-      </c>
-      <c r="C162" s="6">
-        <v>12</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F162" s="7">
-        <v>42795</v>
-      </c>
-      <c r="G162" s="6">
-        <v>2</v>
-      </c>
-      <c r="H162" s="18">
-        <v>3</v>
-      </c>
-      <c r="I162" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J162" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>9</v>
+      <c r="J162" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K162" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B163" s="19">
         <v>14</v>
       </c>
-      <c r="C163" s="6">
-        <v>13</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>23</v>
+      <c r="C163" s="14">
+        <v>2</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F163" s="7">
+        <v>49</v>
+      </c>
+      <c r="F163" s="12">
+        <v>42795</v>
+      </c>
+      <c r="G163" s="14">
+        <v>2</v>
+      </c>
+      <c r="H163" s="16">
+        <v>1</v>
+      </c>
+      <c r="I163" s="12">
         <v>42826</v>
       </c>
-      <c r="G163" s="6">
-        <v>2</v>
-      </c>
-      <c r="H163" s="18">
-        <v>2</v>
-      </c>
-      <c r="I163" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J163" s="23" t="s">
-        <v>42</v>
+      <c r="J163" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B164" s="19">
         <v>14</v>
       </c>
-      <c r="C164" s="6">
-        <v>14</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>58</v>
+      <c r="C164" s="14">
+        <v>3</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F164" s="7">
-        <v>42767</v>
-      </c>
-      <c r="G164" s="6">
-        <v>2</v>
-      </c>
-      <c r="H164" s="18">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="F164" s="12">
+        <v>42826</v>
+      </c>
+      <c r="G164" s="14">
+        <v>2</v>
+      </c>
+      <c r="H164" s="16">
+        <v>3</v>
       </c>
       <c r="I164" s="12">
-        <v>42795</v>
-      </c>
-      <c r="J164" s="23" t="s">
-        <v>43</v>
+        <v>42887</v>
+      </c>
+      <c r="J164" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B165" s="19">
         <v>14</v>
       </c>
-      <c r="C165" s="6">
-        <v>15</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>59</v>
+      <c r="C165" s="14">
+        <v>4</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F165" s="7">
-        <v>42826</v>
-      </c>
-      <c r="G165" s="6">
-        <v>2</v>
-      </c>
-      <c r="H165" s="18">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F165" s="12">
+        <v>42887</v>
+      </c>
+      <c r="G165" s="14">
+        <v>3</v>
+      </c>
+      <c r="H165" s="16">
+        <v>3</v>
       </c>
       <c r="I165" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J165" s="23" t="s">
-        <v>43</v>
+        <v>42887</v>
+      </c>
+      <c r="J165" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B166" s="19">
         <v>14</v>
       </c>
-      <c r="C166" s="6">
-        <v>16</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>60</v>
+      <c r="C166" s="14">
+        <v>5</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F166" s="7">
-        <v>42856</v>
-      </c>
-      <c r="G166" s="6">
-        <v>3</v>
-      </c>
-      <c r="H166" s="18">
-        <v>4</v>
+      <c r="F166" s="12">
+        <v>42767</v>
+      </c>
+      <c r="G166" s="14">
+        <v>4</v>
+      </c>
+      <c r="H166" s="16">
+        <v>2</v>
       </c>
       <c r="I166" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J166" s="23" t="s">
-        <v>43</v>
+        <v>42795</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B167" s="19">
         <v>14</v>
       </c>
-      <c r="C167" s="6">
-        <v>17</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>23</v>
+      <c r="C167" s="14">
+        <v>6</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F167" s="7">
-        <v>42887</v>
-      </c>
-      <c r="G167" s="6">
-        <v>2</v>
-      </c>
-      <c r="H167" s="18">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="F167" s="12">
+        <v>42795</v>
+      </c>
+      <c r="G167" s="14">
+        <v>3</v>
+      </c>
+      <c r="H167" s="16">
+        <v>2</v>
       </c>
       <c r="I167" s="12">
-        <v>42887</v>
-      </c>
-      <c r="J167" s="23" t="s">
-        <v>43</v>
+        <v>42826</v>
+      </c>
+      <c r="J167" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>8</v>
@@ -6134,61 +6754,61 @@
       <c r="B168" s="19">
         <v>14</v>
       </c>
-      <c r="C168" s="6">
-        <v>18</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>61</v>
+      <c r="C168" s="14">
+        <v>7</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="7">
-        <v>42767</v>
-      </c>
-      <c r="G168" s="6">
-        <v>1</v>
-      </c>
-      <c r="H168" s="18">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="F168" s="12">
+        <v>42826</v>
+      </c>
+      <c r="G168" s="14">
+        <v>5</v>
+      </c>
+      <c r="H168" s="16">
+        <v>3</v>
       </c>
       <c r="I168" s="12">
-        <v>42795</v>
-      </c>
-      <c r="J168" s="23" t="s">
-        <v>44</v>
+        <v>42887</v>
+      </c>
+      <c r="J168" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B169" s="19">
         <v>14</v>
       </c>
-      <c r="C169" s="6">
-        <v>19</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>62</v>
+      <c r="C169" s="14">
+        <v>8</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="12">
+        <v>42767</v>
+      </c>
+      <c r="G169" s="14">
+        <v>2</v>
+      </c>
+      <c r="H169" s="16">
+        <v>1</v>
+      </c>
+      <c r="I169" s="12">
         <v>42795</v>
       </c>
-      <c r="G169" s="6">
-        <v>5</v>
-      </c>
-      <c r="H169" s="18">
-        <v>2</v>
-      </c>
-      <c r="I169" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J169" s="23" t="s">
-        <v>44</v>
+      <c r="J169" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>8</v>
@@ -6198,29 +6818,29 @@
       <c r="B170" s="19">
         <v>14</v>
       </c>
-      <c r="C170" s="6">
-        <v>20</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>71</v>
+      <c r="C170" s="15">
+        <v>9</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F170" s="7">
-        <v>42767</v>
-      </c>
-      <c r="G170" s="6">
-        <v>4</v>
-      </c>
-      <c r="H170" s="18">
-        <v>2</v>
+      <c r="F170" s="13">
+        <v>42826</v>
+      </c>
+      <c r="G170" s="15">
+        <v>2</v>
+      </c>
+      <c r="H170" s="17">
+        <v>4</v>
       </c>
       <c r="I170" s="12">
-        <v>42795</v>
-      </c>
-      <c r="J170" s="23" t="s">
-        <v>44</v>
+        <v>42826</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>9</v>
@@ -6231,124 +6851,124 @@
         <v>14</v>
       </c>
       <c r="C171" s="6">
-        <v>21</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E171" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F171" s="7">
+        <v>42856</v>
+      </c>
+      <c r="G171" s="6">
+        <v>3</v>
+      </c>
+      <c r="H171" s="18">
+        <v>3</v>
+      </c>
+      <c r="I171" s="12">
+        <v>42887</v>
+      </c>
+      <c r="J171" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B172" s="19">
+        <v>14</v>
+      </c>
+      <c r="C172" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F172" s="7">
+        <v>42736</v>
+      </c>
+      <c r="G172" s="6">
+        <v>4</v>
+      </c>
+      <c r="H172" s="18">
+        <v>3</v>
+      </c>
+      <c r="I172" s="12">
         <v>42795</v>
       </c>
-      <c r="G171" s="6">
-        <v>1</v>
-      </c>
-      <c r="H171" s="18">
-        <v>2</v>
-      </c>
-      <c r="I171" s="12">
-        <v>42826</v>
-      </c>
-      <c r="J171" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B172" s="25">
-        <v>15</v>
-      </c>
-      <c r="C172" s="26">
-        <v>1</v>
-      </c>
-      <c r="D172" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172" s="31">
-        <v>42979</v>
-      </c>
-      <c r="G172" s="32">
-        <v>5</v>
-      </c>
-      <c r="H172" s="32">
-        <v>4</v>
-      </c>
-      <c r="I172" s="31">
-        <v>43009</v>
-      </c>
-      <c r="J172" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K172" s="27" t="s">
+      <c r="J172" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K172" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B173" s="19">
-        <v>15</v>
-      </c>
-      <c r="C173" s="20">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C173" s="6">
+        <v>12</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F173" s="7">
-        <v>43040</v>
+        <v>42795</v>
       </c>
       <c r="G173" s="6">
-        <v>6</v>
-      </c>
-      <c r="H173" s="6">
-        <v>3</v>
-      </c>
-      <c r="I173" s="7">
-        <v>43040</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="H173" s="18">
+        <v>3</v>
+      </c>
+      <c r="I173" s="12">
+        <v>42826</v>
+      </c>
+      <c r="J173" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B174" s="19">
-        <v>15</v>
-      </c>
-      <c r="C174" s="20">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C174" s="6">
+        <v>13</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F174" s="7">
-        <v>43070</v>
+        <v>42826</v>
       </c>
       <c r="G174" s="6">
-        <v>3</v>
-      </c>
-      <c r="H174" s="6">
-        <v>2</v>
-      </c>
-      <c r="I174" s="7">
-        <v>43070</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="H174" s="18">
+        <v>2</v>
+      </c>
+      <c r="I174" s="12">
+        <v>42887</v>
+      </c>
+      <c r="J174" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>8</v>
@@ -6356,95 +6976,95 @@
     </row>
     <row r="175" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B175" s="19">
-        <v>15</v>
-      </c>
-      <c r="C175" s="20">
-        <v>4</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C175" s="6">
+        <v>14</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F175" s="7">
-        <v>43070</v>
+        <v>42767</v>
       </c>
       <c r="G175" s="6">
-        <v>3</v>
-      </c>
-      <c r="H175" s="6">
-        <v>2</v>
-      </c>
-      <c r="I175" s="7">
-        <v>43070</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="H175" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="I175" s="12">
+        <v>42795</v>
+      </c>
+      <c r="J175" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B176" s="19">
+        <v>14</v>
+      </c>
+      <c r="C176" s="6">
         <v>15</v>
       </c>
-      <c r="C176" s="20">
-        <v>5</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>14</v>
+      <c r="D176" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="F176" s="7">
+        <v>42826</v>
       </c>
       <c r="G176" s="6">
         <v>2</v>
       </c>
-      <c r="H176" s="6">
+      <c r="H176" s="18">
         <v>1</v>
       </c>
-      <c r="I176" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J176" s="6" t="s">
-        <v>39</v>
+      <c r="I176" s="12">
+        <v>42826</v>
+      </c>
+      <c r="J176" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B177" s="19">
-        <v>15</v>
-      </c>
-      <c r="C177" s="20">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C177" s="6">
+        <v>16</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="F177" s="7">
+        <v>42856</v>
       </c>
       <c r="G177" s="6">
-        <v>1</v>
-      </c>
-      <c r="H177" s="6">
-        <v>1</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J177" s="6" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="H177" s="18">
+        <v>4</v>
+      </c>
+      <c r="I177" s="12">
+        <v>42887</v>
+      </c>
+      <c r="J177" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>8</v>
@@ -6452,31 +7072,31 @@
     </row>
     <row r="178" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B178" s="19">
-        <v>15</v>
-      </c>
-      <c r="C178" s="20">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C178" s="6">
+        <v>17</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F178" s="6" t="s">
-        <v>46</v>
+      <c r="F178" s="7">
+        <v>42887</v>
       </c>
       <c r="G178" s="6">
+        <v>2</v>
+      </c>
+      <c r="H178" s="18">
         <v>1</v>
       </c>
-      <c r="H178" s="6">
-        <v>1</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J178" s="6" t="s">
-        <v>39</v>
+      <c r="I178" s="12">
+        <v>42887</v>
+      </c>
+      <c r="J178" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>8</v>
@@ -6484,63 +7104,63 @@
     </row>
     <row r="179" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B179" s="19">
-        <v>15</v>
-      </c>
-      <c r="C179" s="20">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C179" s="6">
+        <v>18</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F179" s="7">
-        <v>43009</v>
+        <v>42767</v>
       </c>
       <c r="G179" s="6">
-        <v>3</v>
-      </c>
-      <c r="H179" s="6">
-        <v>2</v>
-      </c>
-      <c r="I179" s="7">
-        <v>43040</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="H179" s="18">
+        <v>2</v>
+      </c>
+      <c r="I179" s="12">
+        <v>42795</v>
+      </c>
+      <c r="J179" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B180" s="19">
-        <v>15</v>
-      </c>
-      <c r="C180" s="20">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C180" s="6">
+        <v>19</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F180" s="7">
-        <v>43040</v>
+        <v>42795</v>
       </c>
       <c r="G180" s="6">
-        <v>4</v>
-      </c>
-      <c r="H180" s="6">
-        <v>3</v>
-      </c>
-      <c r="I180" s="7">
-        <v>43040</v>
-      </c>
-      <c r="J180" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="H180" s="18">
+        <v>2</v>
+      </c>
+      <c r="I180" s="12">
+        <v>42826</v>
+      </c>
+      <c r="J180" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>8</v>
@@ -6548,97 +7168,97 @@
     </row>
     <row r="181" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B181" s="19">
-        <v>15</v>
-      </c>
-      <c r="C181" s="20">
-        <v>10</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C181" s="6">
+        <v>20</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F181" s="7">
-        <v>43040</v>
+        <v>42767</v>
       </c>
       <c r="G181" s="6">
-        <v>2</v>
-      </c>
-      <c r="H181" s="6">
-        <v>3</v>
-      </c>
-      <c r="I181" s="7">
-        <v>43040</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="H181" s="18">
+        <v>2</v>
+      </c>
+      <c r="I181" s="12">
+        <v>42795</v>
+      </c>
+      <c r="J181" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B182" s="19">
-        <v>15</v>
-      </c>
-      <c r="C182" s="20">
-        <v>11</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C182" s="6">
+        <v>21</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F182" s="7">
-        <v>43070</v>
+        <v>42795</v>
       </c>
       <c r="G182" s="6">
-        <v>2</v>
-      </c>
-      <c r="H182" s="6">
         <v>1</v>
       </c>
-      <c r="I182" s="7">
-        <v>43070</v>
-      </c>
-      <c r="J182" s="6" t="s">
-        <v>40</v>
+      <c r="H182" s="18">
+        <v>2</v>
+      </c>
+      <c r="I182" s="12">
+        <v>42826</v>
+      </c>
+      <c r="J182" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B183" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B183" s="25">
         <v>15</v>
       </c>
-      <c r="C183" s="20">
-        <v>12</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G183" s="6">
+      <c r="C183" s="26">
         <v>1</v>
       </c>
-      <c r="H183" s="6">
-        <v>1</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J183" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="D183" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F183" s="31">
+        <v>42979</v>
+      </c>
+      <c r="G183" s="32">
+        <v>5</v>
+      </c>
+      <c r="H183" s="32">
+        <v>4</v>
+      </c>
+      <c r="I183" s="31">
+        <v>43009</v>
+      </c>
+      <c r="J183" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K183" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6647,28 +7267,28 @@
         <v>15</v>
       </c>
       <c r="C184" s="20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F184" s="7">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="G184" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H184" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184" s="7">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>8</v>
@@ -6679,28 +7299,28 @@
         <v>15</v>
       </c>
       <c r="C185" s="20">
-        <v>14</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F185" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="G185" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H185" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I185" s="7">
         <v>43070</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>8</v>
@@ -6711,28 +7331,28 @@
         <v>15</v>
       </c>
       <c r="C186" s="20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F186" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="G186" s="6">
         <v>3</v>
       </c>
       <c r="H186" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>8</v>
@@ -6743,31 +7363,31 @@
         <v>15</v>
       </c>
       <c r="C187" s="20">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F187" s="7">
-        <v>43070</v>
+        <v>47</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G187" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H187" s="6">
-        <v>2</v>
-      </c>
-      <c r="I187" s="7">
-        <v>43070</v>
+        <v>1</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -6775,28 +7395,28 @@
         <v>15</v>
       </c>
       <c r="C188" s="20">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G188" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>8</v>
@@ -6807,10 +7427,10 @@
         <v>15</v>
       </c>
       <c r="C189" s="20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>47</v>
@@ -6819,16 +7439,16 @@
         <v>46</v>
       </c>
       <c r="G189" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I189" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>8</v>
@@ -6839,10 +7459,10 @@
         <v>15</v>
       </c>
       <c r="C190" s="20">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>47</v>
@@ -6851,16 +7471,16 @@
         <v>43009</v>
       </c>
       <c r="G190" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H190" s="6">
         <v>2</v>
       </c>
       <c r="I190" s="7">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>8</v>
@@ -6871,10 +7491,10 @@
         <v>15</v>
       </c>
       <c r="C191" s="20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>47</v>
@@ -6883,16 +7503,16 @@
         <v>43040</v>
       </c>
       <c r="G191" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H191" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191" s="7">
         <v>43040</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>8</v>
@@ -6903,28 +7523,28 @@
         <v>15</v>
       </c>
       <c r="C192" s="20">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F192" s="7">
         <v>43040</v>
       </c>
       <c r="G192" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192" s="7">
         <v>43040</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>8</v>
@@ -6935,13 +7555,13 @@
         <v>15</v>
       </c>
       <c r="C193" s="20">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F193" s="7">
         <v>43070</v>
@@ -6950,13 +7570,13 @@
         <v>2</v>
       </c>
       <c r="H193" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" s="7">
         <v>43070</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>8</v>
@@ -6967,31 +7587,31 @@
         <v>15</v>
       </c>
       <c r="C194" s="20">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F194" s="7">
-        <v>43070</v>
+      <c r="F194" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="G194" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" s="6">
-        <v>3</v>
-      </c>
-      <c r="I194" s="7">
-        <v>43070</v>
+        <v>1</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -6999,28 +7619,28 @@
         <v>15</v>
       </c>
       <c r="C195" s="20">
-        <v>24</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="F195" s="7">
+        <v>43009</v>
       </c>
       <c r="G195" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H195" s="6">
-        <v>3</v>
-      </c>
-      <c r="I195" s="6" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="I195" s="7">
+        <v>43009</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>8</v>
@@ -7031,28 +7651,28 @@
         <v>15</v>
       </c>
       <c r="C196" s="20">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F196" s="7">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="G196" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H196" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I196" s="7">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K196" s="2" t="s">
         <v>8</v>
@@ -7063,13 +7683,13 @@
         <v>15</v>
       </c>
       <c r="C197" s="20">
-        <v>26</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F197" s="7">
         <v>43040</v>
@@ -7078,13 +7698,13 @@
         <v>3</v>
       </c>
       <c r="H197" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" s="7">
         <v>43040</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>8</v>
@@ -7095,31 +7715,31 @@
         <v>15</v>
       </c>
       <c r="C198" s="20">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F198" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="G198" s="6">
         <v>3</v>
       </c>
       <c r="H198" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I198" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -7127,31 +7747,31 @@
         <v>15</v>
       </c>
       <c r="C199" s="20">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F199" s="7">
-        <v>43070</v>
+        <v>47</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G199" s="6">
         <v>2</v>
       </c>
       <c r="H199" s="6">
-        <v>3</v>
-      </c>
-      <c r="I199" s="7">
-        <v>43070</v>
+        <v>2</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -7159,28 +7779,28 @@
         <v>15</v>
       </c>
       <c r="C200" s="20">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G200" s="6">
         <v>2</v>
       </c>
       <c r="H200" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200" s="2" t="s">
         <v>8</v>
@@ -7191,28 +7811,28 @@
         <v>15</v>
       </c>
       <c r="C201" s="20">
-        <v>30</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F201" s="6" t="s">
-        <v>45</v>
+      <c r="F201" s="7">
+        <v>43009</v>
       </c>
       <c r="G201" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H201" s="6">
-        <v>1</v>
-      </c>
-      <c r="I201" s="6" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="I201" s="7">
+        <v>43009</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201" s="2" t="s">
         <v>8</v>
@@ -7223,28 +7843,28 @@
         <v>15</v>
       </c>
       <c r="C202" s="20">
-        <v>31</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F202" s="6" t="s">
-        <v>46</v>
+      <c r="F202" s="7">
+        <v>43040</v>
       </c>
       <c r="G202" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H202" s="6">
         <v>2</v>
       </c>
-      <c r="I202" s="6" t="s">
-        <v>46</v>
+      <c r="I202" s="7">
+        <v>43040</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>8</v>
@@ -7255,16 +7875,16 @@
         <v>15</v>
       </c>
       <c r="C203" s="20">
-        <v>32</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F203" s="7">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="G203" s="6">
         <v>3</v>
@@ -7273,10 +7893,10 @@
         <v>2</v>
       </c>
       <c r="I203" s="7">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K203" s="2" t="s">
         <v>8</v>
@@ -7287,16 +7907,16 @@
         <v>15</v>
       </c>
       <c r="C204" s="20">
-        <v>33</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F204" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="G204" s="6">
         <v>2</v>
@@ -7305,10 +7925,10 @@
         <v>2</v>
       </c>
       <c r="I204" s="7">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K204" s="2" t="s">
         <v>8</v>
@@ -7319,10 +7939,10 @@
         <v>15</v>
       </c>
       <c r="C205" s="20">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>49</v>
@@ -7340,7 +7960,7 @@
         <v>43070</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>9</v>
@@ -7351,214 +7971,220 @@
         <v>15</v>
       </c>
       <c r="C206" s="20">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G206" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H206" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B207" s="25">
-        <v>16</v>
-      </c>
-      <c r="C207" s="26">
-        <v>1</v>
-      </c>
-      <c r="D207" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E207" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F207" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G207" s="26">
-        <v>6</v>
-      </c>
-      <c r="H207" s="26">
-        <v>4</v>
-      </c>
-      <c r="I207" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J207" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K207" s="27" t="s">
+    <row r="207" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B207" s="19">
+        <v>15</v>
+      </c>
+      <c r="C207" s="20">
+        <v>25</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F207" s="7">
+        <v>43009</v>
+      </c>
+      <c r="G207" s="6">
+        <v>4</v>
+      </c>
+      <c r="H207" s="6">
+        <v>2</v>
+      </c>
+      <c r="I207" s="7">
+        <v>43009</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="208" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B208" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208" s="20">
-        <v>2</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F208" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G208" s="20">
-        <v>4</v>
-      </c>
-      <c r="H208" s="20">
-        <v>3</v>
-      </c>
-      <c r="I208" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J208" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="F208" s="7">
+        <v>43040</v>
+      </c>
+      <c r="G208" s="6">
+        <v>3</v>
+      </c>
+      <c r="H208" s="6">
+        <v>2</v>
+      </c>
+      <c r="I208" s="7">
+        <v>43040</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B209" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C209" s="20">
-        <v>3</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F209" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G209" s="20">
-        <v>5</v>
-      </c>
-      <c r="H209" s="20">
-        <v>4</v>
-      </c>
-      <c r="I209" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J209" s="20" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="F209" s="7">
+        <v>43040</v>
+      </c>
+      <c r="G209" s="6">
+        <v>3</v>
+      </c>
+      <c r="H209" s="6">
+        <v>4</v>
+      </c>
+      <c r="I209" s="7">
+        <v>43040</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B210" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C210" s="20">
-        <v>4</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F210" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G210" s="20"/>
-      <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="F210" s="7">
+        <v>43070</v>
+      </c>
+      <c r="G210" s="6">
+        <v>2</v>
+      </c>
+      <c r="H210" s="6">
+        <v>3</v>
+      </c>
+      <c r="I210" s="7">
+        <v>43070</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B211" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C211" s="20">
-        <v>5</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F211" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G211" s="20">
-        <v>4</v>
-      </c>
-      <c r="H211" s="20">
-        <v>6</v>
-      </c>
-      <c r="I211" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J211" s="20" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G211" s="6">
+        <v>2</v>
+      </c>
+      <c r="H211" s="6">
+        <v>1</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B212" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C212" s="20">
-        <v>7</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F212" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G212" s="20">
-        <v>3</v>
-      </c>
-      <c r="H212" s="20">
-        <v>2</v>
-      </c>
-      <c r="I212" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J212" s="20" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1</v>
+      </c>
+      <c r="H212" s="6">
+        <v>1</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K212" s="2" t="s">
         <v>8</v>
@@ -7566,63 +8192,63 @@
     </row>
     <row r="213" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B213" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C213" s="20">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F213" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G213" s="20">
-        <v>4</v>
-      </c>
-      <c r="H213" s="20">
-        <v>4</v>
-      </c>
-      <c r="I213" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J213" s="20" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G213" s="6">
+        <v>1</v>
+      </c>
+      <c r="H213" s="6">
+        <v>2</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B214" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C214" s="20">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F214" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G214" s="20">
-        <v>5</v>
-      </c>
-      <c r="H214" s="20">
-        <v>4</v>
-      </c>
-      <c r="I214" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J214" s="20" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F214" s="7">
+        <v>43009</v>
+      </c>
+      <c r="G214" s="6">
+        <v>3</v>
+      </c>
+      <c r="H214" s="6">
+        <v>2</v>
+      </c>
+      <c r="I214" s="7">
+        <v>43009</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>8</v>
@@ -7630,187 +8256,215 @@
     </row>
     <row r="215" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B215" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C215" s="20">
-        <v>10</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E215" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F215" s="7">
+        <v>43040</v>
+      </c>
+      <c r="G215" s="6">
+        <v>2</v>
+      </c>
+      <c r="H215" s="6">
+        <v>2</v>
+      </c>
+      <c r="I215" s="7">
+        <v>43040</v>
+      </c>
+      <c r="J215" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B216" s="19">
+        <v>15</v>
+      </c>
+      <c r="C216" s="20">
+        <v>34</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F215" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G215" s="20">
-        <v>5</v>
-      </c>
-      <c r="H215" s="20">
-        <v>5</v>
-      </c>
-      <c r="I215" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J215" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B216" s="25">
-        <v>17</v>
-      </c>
-      <c r="C216" s="26">
-        <v>1</v>
-      </c>
-      <c r="D216" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E216" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G216" s="26"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J216" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K216" s="27"/>
+      <c r="F216" s="7">
+        <v>43070</v>
+      </c>
+      <c r="G216" s="6">
+        <v>2</v>
+      </c>
+      <c r="H216" s="6">
+        <v>3</v>
+      </c>
+      <c r="I216" s="7">
+        <v>43070</v>
+      </c>
+      <c r="J216" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="217" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B217" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C217" s="20">
-        <v>2</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G217" s="6">
+        <v>3</v>
+      </c>
+      <c r="H217" s="6">
+        <v>4</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J217" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B218" s="25">
+        <v>16</v>
+      </c>
+      <c r="C218" s="26">
+        <v>1</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E218" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F217" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-      <c r="I217" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J217" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K217" s="2"/>
-    </row>
-    <row r="218" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B218" s="19">
-        <v>17</v>
-      </c>
-      <c r="C218" s="20">
-        <v>3</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F218" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G218" s="20"/>
-      <c r="H218" s="20"/>
-      <c r="I218" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J218" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K218" s="2"/>
+      <c r="F218" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G218" s="26">
+        <v>6</v>
+      </c>
+      <c r="H218" s="26">
+        <v>4</v>
+      </c>
+      <c r="I218" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J218" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="219" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B219" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C219" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="G219" s="20">
+        <v>4</v>
+      </c>
+      <c r="H219" s="20">
+        <v>3</v>
+      </c>
       <c r="I219" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J219" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K219" s="2"/>
+      <c r="K219" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="220" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B220" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220" s="20">
+        <v>3</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F220" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G220" s="20">
         <v>5</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F220" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G220" s="20"/>
-      <c r="H220" s="20"/>
+      <c r="H220" s="20">
+        <v>4</v>
+      </c>
       <c r="I220" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J220" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K220" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="221" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B221" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20"/>
-      <c r="I221" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="I221" s="20"/>
       <c r="J221" s="20" t="s">
         <v>44</v>
       </c>
@@ -7820,174 +8474,492 @@
     </row>
     <row r="222" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B222" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G222" s="20"/>
-      <c r="H222" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="G222" s="20">
+        <v>4</v>
+      </c>
+      <c r="H222" s="20">
+        <v>6</v>
+      </c>
       <c r="I222" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J222" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K222" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="223" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B223" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G223" s="20"/>
-      <c r="H223" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="G223" s="20">
+        <v>3</v>
+      </c>
+      <c r="H223" s="20">
+        <v>2</v>
+      </c>
       <c r="I223" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J223" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K223" s="2"/>
+      <c r="K223" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="224" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B224" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224" s="20">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G224" s="20">
+        <v>4</v>
+      </c>
+      <c r="H224" s="20">
+        <v>4</v>
+      </c>
+      <c r="I224" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J224" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F224" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G224" s="20"/>
-      <c r="H224" s="20"/>
-      <c r="I224" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J224" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K224" s="2"/>
     </row>
     <row r="225" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B225" s="19">
+        <v>16</v>
+      </c>
+      <c r="C225" s="20">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F225" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G225" s="20">
+        <v>5</v>
+      </c>
+      <c r="H225" s="20">
+        <v>4</v>
+      </c>
+      <c r="I225" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J225" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B226" s="19">
+        <v>16</v>
+      </c>
+      <c r="C226" s="20">
+        <v>10</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F226" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G226" s="20">
+        <v>5</v>
+      </c>
+      <c r="H226" s="20">
+        <v>5</v>
+      </c>
+      <c r="I226" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J226" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B227" s="25">
         <v>17</v>
       </c>
-      <c r="C225" s="20">
-        <v>10</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F225" s="20" t="s">
+      <c r="C227" s="26">
+        <v>1</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F227" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G225" s="20"/>
-      <c r="H225" s="20"/>
-      <c r="I225" s="20" t="s">
+      <c r="G227" s="26"/>
+      <c r="H227" s="26"/>
+      <c r="I227" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J225" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K225" s="2"/>
-    </row>
-    <row r="226" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B226" s="19"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
-      <c r="H226" s="20"/>
-      <c r="I226" s="20"/>
-      <c r="J226" s="20"/>
-      <c r="K226" s="2"/>
-    </row>
-    <row r="227" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B227" s="19"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-      <c r="H227" s="20"/>
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="2"/>
+      <c r="J227" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K227" s="27"/>
     </row>
     <row r="228" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B228" s="19"/>
-      <c r="C228" s="20"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="20"/>
+      <c r="B228" s="19">
+        <v>17</v>
+      </c>
+      <c r="C228" s="20">
+        <v>2</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F228" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20"/>
-      <c r="I228" s="20"/>
-      <c r="J228" s="20"/>
+      <c r="I228" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J228" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="K228" s="2"/>
     </row>
     <row r="229" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B229" s="19"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="20"/>
+      <c r="B229" s="19">
+        <v>17</v>
+      </c>
+      <c r="C229" s="20">
+        <v>3</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F229" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20"/>
-      <c r="I229" s="20"/>
-      <c r="J229" s="20"/>
+      <c r="I229" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J229" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="K229" s="2"/>
     </row>
     <row r="230" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B230" s="19"/>
-      <c r="C230" s="20"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="20"/>
+      <c r="B230" s="19">
+        <v>17</v>
+      </c>
+      <c r="C230" s="20">
+        <v>4</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F230" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20"/>
-      <c r="I230" s="20"/>
-      <c r="J230" s="20"/>
+      <c r="I230" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J230" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B231" s="19">
+        <v>17</v>
+      </c>
+      <c r="C231" s="20">
+        <v>5</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F231" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J231" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B232" s="19">
+        <v>17</v>
+      </c>
+      <c r="C232" s="20">
+        <v>6</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F232" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J232" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B233" s="19">
+        <v>17</v>
+      </c>
+      <c r="C233" s="20">
+        <v>7</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F233" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J233" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B234" s="19">
+        <v>17</v>
+      </c>
+      <c r="C234" s="20">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F234" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J234" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B235" s="19">
+        <v>17</v>
+      </c>
+      <c r="C235" s="20">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F235" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J235" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B236" s="19">
+        <v>17</v>
+      </c>
+      <c r="C236" s="20">
+        <v>10</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F236" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J236" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B237" s="19"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B238" s="19"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="20"/>
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B239" s="19"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="20"/>
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B240" s="19"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B241" s="19"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="20"/>
+      <c r="K241" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
       <formula1>Trangthai</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K151:K230 K2:K149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K241">
       <formula1>sta</formula1>
     </dataValidation>
   </dataValidations>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -769,6 +769,60 @@
   </si>
   <si>
     <t>Writting rationel</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Account"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Account"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage News"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage FAQ"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Homepage"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Categories"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Banners"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Popups"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Languages"</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Examination"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage News"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Categories"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Banners"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Popups"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Homepage"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Examination"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Language"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage FAQ"</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O241"/>
+  <dimension ref="B1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152:C161"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8648,15 +8702,21 @@
       <c r="F227" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G227" s="26"/>
-      <c r="H227" s="26"/>
+      <c r="G227" s="26">
+        <v>4</v>
+      </c>
+      <c r="H227" s="26">
+        <v>7</v>
+      </c>
       <c r="I227" s="26" t="s">
         <v>83</v>
       </c>
       <c r="J227" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K227" s="27"/>
+      <c r="K227" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="228" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B228" s="19">
@@ -8674,15 +8734,21 @@
       <c r="F228" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G228" s="20"/>
-      <c r="H228" s="20"/>
+      <c r="G228" s="20">
+        <v>2</v>
+      </c>
+      <c r="H228" s="20">
+        <v>4</v>
+      </c>
       <c r="I228" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J228" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K228" s="2"/>
+      <c r="K228" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="229" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B229" s="19">
@@ -8700,15 +8766,21 @@
       <c r="F229" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
+      <c r="G229" s="20">
+        <v>3</v>
+      </c>
+      <c r="H229" s="20">
+        <v>5</v>
+      </c>
       <c r="I229" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J229" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K229" s="2"/>
+      <c r="K229" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="230" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B230" s="19">
@@ -8726,15 +8798,21 @@
       <c r="F230" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G230" s="20"/>
-      <c r="H230" s="20"/>
+      <c r="G230" s="20">
+        <v>3</v>
+      </c>
+      <c r="H230" s="20">
+        <v>4</v>
+      </c>
       <c r="I230" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J230" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K230" s="2"/>
+      <c r="K230" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="231" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B231" s="19">
@@ -8752,7 +8830,9 @@
       <c r="F231" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G231" s="20"/>
+      <c r="G231" s="20">
+        <v>3</v>
+      </c>
       <c r="H231" s="20"/>
       <c r="I231" s="20" t="s">
         <v>83</v>
@@ -8760,7 +8840,9 @@
       <c r="J231" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K231" s="2"/>
+      <c r="K231" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="232" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B232" s="19">
@@ -8778,7 +8860,9 @@
       <c r="F232" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G232" s="20"/>
+      <c r="G232" s="20">
+        <v>4</v>
+      </c>
       <c r="H232" s="20"/>
       <c r="I232" s="20" t="s">
         <v>83</v>
@@ -8806,15 +8890,21 @@
       <c r="F233" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20"/>
+      <c r="G233" s="20">
+        <v>3</v>
+      </c>
+      <c r="H233" s="20">
+        <v>3</v>
+      </c>
       <c r="I233" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J233" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K233" s="2"/>
+      <c r="K233" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="234" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B234" s="19">
@@ -8832,15 +8922,21 @@
       <c r="F234" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G234" s="20"/>
-      <c r="H234" s="20"/>
+      <c r="G234" s="20">
+        <v>3</v>
+      </c>
+      <c r="H234" s="20">
+        <v>2</v>
+      </c>
       <c r="I234" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J234" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K234" s="2"/>
+      <c r="K234" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="235" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B235" s="19">
@@ -8858,15 +8954,21 @@
       <c r="F235" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G235" s="20"/>
-      <c r="H235" s="20"/>
+      <c r="G235" s="20">
+        <v>4</v>
+      </c>
+      <c r="H235" s="20">
+        <v>5</v>
+      </c>
       <c r="I235" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J235" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K235" s="2"/>
+      <c r="K235" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="236" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B236" s="19">
@@ -8884,82 +8986,682 @@
       <c r="F236" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G236" s="20"/>
-      <c r="H236" s="20"/>
+      <c r="G236" s="20">
+        <v>4</v>
+      </c>
+      <c r="H236" s="20">
+        <v>3</v>
+      </c>
       <c r="I236" s="20" t="s">
         <v>83</v>
       </c>
       <c r="J236" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K236" s="2"/>
-    </row>
-    <row r="237" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B237" s="19"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
-      <c r="K237" s="2"/>
+      <c r="K236" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B237" s="25">
+        <v>18</v>
+      </c>
+      <c r="C237" s="26">
+        <v>1</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F237" s="28">
+        <v>42888</v>
+      </c>
+      <c r="G237" s="26">
+        <v>3</v>
+      </c>
+      <c r="H237" s="26">
+        <v>4</v>
+      </c>
+      <c r="I237" s="28">
+        <v>42918</v>
+      </c>
+      <c r="J237" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K237" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="238" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B238" s="19"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
+      <c r="B238" s="19">
+        <v>18</v>
+      </c>
+      <c r="C238" s="20">
+        <v>2</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F238" s="24">
+        <v>42888</v>
+      </c>
+      <c r="G238" s="20">
+        <v>3</v>
+      </c>
+      <c r="H238" s="20">
+        <v>5</v>
+      </c>
+      <c r="I238" s="24">
+        <v>42949</v>
+      </c>
+      <c r="J238" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="K238" s="2"/>
     </row>
     <row r="239" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B239" s="19"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
+      <c r="B239" s="19">
+        <v>18</v>
+      </c>
+      <c r="C239" s="20">
+        <v>3</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F239" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G239" s="20">
+        <v>5</v>
+      </c>
       <c r="H239" s="20"/>
-      <c r="I239" s="20"/>
-      <c r="J239" s="20"/>
+      <c r="I239" s="24">
+        <v>42980</v>
+      </c>
+      <c r="J239" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="K239" s="2"/>
     </row>
     <row r="240" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B240" s="19"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="20"/>
+      <c r="B240" s="19">
+        <v>18</v>
+      </c>
+      <c r="C240" s="20">
+        <v>4</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F240" s="24">
+        <v>42918</v>
+      </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20"/>
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
+      <c r="I240" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J240" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="K240" s="2"/>
     </row>
     <row r="241" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B241" s="19"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="20"/>
+      <c r="B241" s="19">
+        <v>18</v>
+      </c>
+      <c r="C241" s="20">
+        <v>5</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F241" s="24">
+        <v>42918</v>
+      </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20"/>
-      <c r="I241" s="20"/>
-      <c r="J241" s="20"/>
+      <c r="I241" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J241" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="K241" s="2"/>
+    </row>
+    <row r="242" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B242" s="19">
+        <v>18</v>
+      </c>
+      <c r="C242" s="20">
+        <v>6</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F242" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J242" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B243" s="19">
+        <v>18</v>
+      </c>
+      <c r="C243" s="20">
+        <v>7</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F243" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J243" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B244" s="19">
+        <v>18</v>
+      </c>
+      <c r="C244" s="20">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F244" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J244" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B245" s="19">
+        <v>18</v>
+      </c>
+      <c r="C245" s="20">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F245" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G245" s="20"/>
+      <c r="H245" s="20"/>
+      <c r="I245" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J245" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B246" s="19">
+        <v>18</v>
+      </c>
+      <c r="C246" s="20">
+        <v>10</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F246" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J246" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B247" s="19">
+        <v>18</v>
+      </c>
+      <c r="C247" s="20">
+        <v>11</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F247" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J247" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B248" s="19">
+        <v>18</v>
+      </c>
+      <c r="C248" s="20">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F248" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J248" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B249" s="19">
+        <v>18</v>
+      </c>
+      <c r="C249" s="20">
+        <v>13</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F249" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G249" s="20"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J249" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K249" s="2"/>
+    </row>
+    <row r="250" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B250" s="19">
+        <v>18</v>
+      </c>
+      <c r="C250" s="20">
+        <v>14</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F250" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J250" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K250" s="2"/>
+    </row>
+    <row r="251" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B251" s="19">
+        <v>18</v>
+      </c>
+      <c r="C251" s="20">
+        <v>15</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F251" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J251" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K251" s="2"/>
+    </row>
+    <row r="252" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B252" s="19">
+        <v>18</v>
+      </c>
+      <c r="C252" s="20">
+        <v>16</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F252" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G252" s="20"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J252" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K252" s="2"/>
+    </row>
+    <row r="253" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B253" s="19">
+        <v>18</v>
+      </c>
+      <c r="C253" s="20">
+        <v>17</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F253" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J253" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B254" s="19">
+        <v>18</v>
+      </c>
+      <c r="C254" s="20">
+        <v>18</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F254" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J254" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K254" s="2"/>
+    </row>
+    <row r="255" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B255" s="19">
+        <v>18</v>
+      </c>
+      <c r="C255" s="20">
+        <v>19</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F255" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J255" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B256" s="19">
+        <v>18</v>
+      </c>
+      <c r="C256" s="20">
+        <v>20</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F256" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G256" s="20"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J256" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B257" s="19">
+        <v>18</v>
+      </c>
+      <c r="C257" s="20">
+        <v>21</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F257" s="24">
+        <v>42918</v>
+      </c>
+      <c r="G257" s="20"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="24">
+        <v>43010</v>
+      </c>
+      <c r="J257" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B258" s="19"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="20"/>
+      <c r="K258" s="2"/>
+    </row>
+    <row r="259" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B259" s="19"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="2"/>
+    </row>
+    <row r="260" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B260" s="19"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="20"/>
+      <c r="K260" s="2"/>
+    </row>
+    <row r="261" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B261" s="19"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="20"/>
+      <c r="K261" s="2"/>
+    </row>
+    <row r="262" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B262" s="19"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="20"/>
+      <c r="K262" s="2"/>
+    </row>
+    <row r="263" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B263" s="19"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="2"/>
+    </row>
+    <row r="264" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B264" s="19"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="20"/>
+      <c r="K264" s="2"/>
+    </row>
+    <row r="265" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B265" s="19"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
       <formula1>Trangthai</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K241">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K265">
       <formula1>sta</formula1>
     </dataValidation>
   </dataValidations>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\DELIVERABLE\TASK_ASSIGN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="2895"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <definedName name="STATUS">Sheet1!$K$2:$K$10</definedName>
     <definedName name="Trangthai">Sheet1!$N$3:$N$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -828,7 +823,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1174,7 +1169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1226,7 +1221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1420,7 +1415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1432,7 +1427,7 @@
   <dimension ref="B1:O265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A228" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8833,7 +8828,9 @@
       <c r="G231" s="20">
         <v>3</v>
       </c>
-      <c r="H231" s="20"/>
+      <c r="H231" s="20">
+        <v>4</v>
+      </c>
       <c r="I231" s="20" t="s">
         <v>83</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>43</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -1427,7 +1427,7 @@
   <dimension ref="B1:O265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A228" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
+++ b/DELIVERABLE/TASK_ASSIGN/BSS_TaskAssign.xlsx
@@ -1415,7 +1415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1426,8 +1426,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9443,8 +9443,12 @@
       <c r="F253" s="24">
         <v>42918</v>
       </c>
-      <c r="G253" s="20"/>
-      <c r="H253" s="20"/>
+      <c r="G253" s="20">
+        <v>7</v>
+      </c>
+      <c r="H253" s="20">
+        <v>8</v>
+      </c>
       <c r="I253" s="24">
         <v>43010</v>
       </c>
